--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -316,17 +317,92 @@
   </si>
   <si>
     <t>case7</t>
+  </si>
+  <si>
+    <t>case1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-eg-g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"e-g-g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eeg-g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"egg-g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eg-g-"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eg-gg"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"eg--g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00000000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000000000_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,13 +441,46 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -406,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,7 +534,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -723,18 +874,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:N23"/>
+  <dimension ref="A5:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -769,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -808,7 +961,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:21">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -847,7 +1000,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:21">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -886,7 +1039,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -925,7 +1078,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:21">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -942,6 +1095,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +1112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -968,18 +1122,21 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="14">
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" s="2">
-        <v>0.39953931999999998</v>
+        <v>0.39953934713520967</v>
       </c>
       <c r="J13" s="2">
         <v>0.37548884265867677</v>
@@ -995,10 +1152,14 @@
       </c>
       <c r="N13" s="6">
         <f>PRODUCT(I13:M13)</f>
-        <v>2.2647648811216289E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>2.2647650349359518E-4</v>
+      </c>
+      <c r="R13">
+        <f>PRODUCT(I13:K13)</f>
+        <v>1.6217301062643134E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1008,21 +1169,24 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="14">
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="I14" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J14" s="2">
-        <v>0.15446545</v>
+        <v>0.15446546710483236</v>
       </c>
       <c r="K14" s="2">
         <v>0.10809907723401639</v>
@@ -1035,10 +1199,14 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N19" si="0">PRODUCT(I14:M14)</f>
-        <v>4.2171644076212896E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>4.2171655392580003E-5</v>
+      </c>
+      <c r="R14">
+        <f t="shared" ref="R14:R16" si="1">PRODUCT(I14:K14)</f>
+        <v>3.0197853696149498E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1048,18 +1216,21 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="14">
         <v>2</v>
       </c>
       <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I15" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J15" s="2">
         <v>0.37548884265867677</v>
@@ -1075,10 +1246,14 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" si="0"/>
-        <v>1.0251471657377636E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.02514732730608E-4</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>7.3407715961831882E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1088,21 +1263,24 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="14">
         <v>2</v>
       </c>
       <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="I16" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J16" s="2">
-        <v>0.24632662999999999</v>
+        <v>0.24632663936280097</v>
       </c>
       <c r="K16" s="2">
         <v>0.10809907723401639</v>
@@ -1115,20 +1293,28 @@
       </c>
       <c r="N16" s="6">
         <f t="shared" si="0"/>
-        <v>6.725127830756319E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>6.725129146290196E-5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>4.8156626567501144E-3</v>
+      </c>
+      <c r="U16" s="20">
+        <f>SUM(R13:R16)</f>
+        <v>3.1393520685191384E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1">
@@ -1138,11 +1324,14 @@
         <v>6</v>
       </c>
       <c r="G17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="I17" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J17" s="2">
-        <v>0.24632662999999999</v>
+        <v>0.24632663936280097</v>
       </c>
       <c r="K17" s="2">
         <v>0.22710004298359593</v>
@@ -1155,20 +1344,21 @@
       </c>
       <c r="N17" s="6">
         <f t="shared" si="0"/>
-        <v>2.4178589099754685E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>2.4178593829442193E-4</v>
+      </c>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1">
@@ -1178,11 +1368,14 @@
         <v>2</v>
       </c>
       <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I18" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J18" s="2">
-        <v>0.24632662999999999</v>
+        <v>0.24632663936280097</v>
       </c>
       <c r="K18" s="2">
         <v>0.22710004298359593</v>
@@ -1195,20 +1388,21 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" si="0"/>
-        <v>2.3276313455434153E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>2.3276318008623277E-4</v>
+      </c>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1218,11 +1412,14 @@
         <v>2</v>
       </c>
       <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I19" s="2">
-        <v>0.18085171</v>
+        <v>0.1808517385031333</v>
       </c>
       <c r="J19" s="2">
-        <v>0.24632662999999999</v>
+        <v>0.24632663936280097</v>
       </c>
       <c r="K19" s="2">
         <v>0.22710004298359593</v>
@@ -1235,22 +1432,26 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" si="0"/>
-        <v>1.41284908115232E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.4128493575263723E-4</v>
+      </c>
+      <c r="U19" s="20">
+        <f>D64</f>
+        <v>3.1393520685191384E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="N20" s="6">
+      <c r="N20" s="11">
         <f>SUM(N13:N19)</f>
-        <v>1.0542480607368357E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.0542482372129772E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1259,10 +1460,10 @@
       <c r="G21" s="1"/>
       <c r="N21">
         <f>-LN(N20)</f>
-        <v>6.8549275048111147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>6.8549273374158561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1270,7 +1471,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:21">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1278,9 +1479,1277 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="O27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="O29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="O30" s="3">
+        <v>2</v>
+      </c>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="2"/>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="7"/>
+      <c r="O32" s="3">
+        <v>2</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="H33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="O33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="B34" s="2">
+        <v>0.39953931999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.37548884265867677</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.15446545</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.37548884265867677</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="H38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="O38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="3">
+        <v>1</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="O40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="3">
+        <v>2</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="O41" s="3">
+        <v>2</v>
+      </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="O42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="7"/>
+      <c r="H43" s="3">
+        <v>2</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="O43" s="3">
+        <v>2</v>
+      </c>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="7"/>
+      <c r="O44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.11885010230613731</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>2</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.39953934713520967</v>
+      </c>
+      <c r="C61" s="8">
+        <f>B61*J9</f>
+        <v>6.1715031881999928E-2</v>
+      </c>
+      <c r="D61" s="8">
+        <f>C61*K9</f>
+        <v>1.4015486393136177E-2</v>
+      </c>
+      <c r="E61" s="8">
+        <f>D61*L9</f>
+        <v>1.7106845937180787E-3</v>
+      </c>
+      <c r="F61" s="8">
+        <f>E61*M9</f>
+        <v>2.0331503897692659E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.1808517385031333</v>
+      </c>
+      <c r="C62" s="8">
+        <f>(B62+B61)*J7</f>
+        <v>0.21793037703575435</v>
+      </c>
+      <c r="D62" s="8">
+        <f t="shared" ref="D62:F62" si="2">(C62+C61)*K7</f>
+        <v>0.13593122282401066</v>
+      </c>
+      <c r="E62" s="8">
+        <f t="shared" si="2"/>
+        <v>6.4110632095063069E-2</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="2"/>
+        <v>3.5856737790261342E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="8">
+        <f>SUM(B62:B63)*J9</f>
+        <v>2.793534826460748E-2</v>
+      </c>
+      <c r="D63" s="8">
+        <f t="shared" ref="D63:F63" si="3">SUM(C62:C63)*K9</f>
+        <v>5.5836116783905161E-2</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="3"/>
+        <v>2.3406496517040059E-2</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="3"/>
+        <v>1.0401419689087834E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>2</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="8">
+        <f>SUM(B62:B64)*J8</f>
+        <v>4.4548600968396905E-2</v>
+      </c>
+      <c r="D64" s="19">
+        <f t="shared" ref="D64:F64" si="4">SUM(C62:C64)*K8</f>
+        <v>3.1393520685191384E-2</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="4"/>
+        <v>4.4874355133624595E-2</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="4"/>
+        <v>1.5147565938106872E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="8">
+        <f t="shared" ref="C65:F65" si="5">SUM(B64:B65)*J9</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0116989194782001E-2</v>
+      </c>
+      <c r="E65" s="8">
+        <f t="shared" si="5"/>
+        <v>5.0666375562841018E-3</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="5"/>
+        <v>5.9354920904657041E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>2</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="8">
+        <f>SUM(B65:B66)*J8</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <f>SUM(C65:C66)*K8</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <f>SUM(D65:D66)*L8</f>
+        <v>2.0343771995384838E-3</v>
+      </c>
+      <c r="F66" s="9">
+        <f>SUM(E65:E66)*M8</f>
+        <v>8.1246229891855518E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9">
+        <f>SUM(E66:E67)*M9</f>
+        <v>2.4178593829442193E-4</v>
+      </c>
+      <c r="G67" s="12">
+        <f>F67+F66</f>
+        <v>1.0542482372129772E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C6:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:19">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.35140475291221579</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.1787166513658611</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.24930190636846544</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.22197619682315342</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1808517385031333</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.37548884265867677</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.4860842284165266</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.42755611263345977</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.54475874373344024</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.8204161449441275E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.39953934713520967</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.11885010230613731</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.39953931999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.37548884265867677</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I14" s="16">
+        <f>PRODUCT(D14:H14)</f>
+        <v>2.2647648811216289E-4</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>2</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.15446545</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" ref="I15:I20" si="0">PRODUCT(D15:H15)</f>
+        <v>4.2171644076212896E-5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>2</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.37548884265867677</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0251471657377636E-4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>2</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="0"/>
+        <v>6.725127830756319E-5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>2</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.11885010230613731</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="0"/>
+        <v>2.4178589099754685E-4</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="0"/>
+        <v>2.3276313455434153E-4</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.18085171</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.24632662999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>1.41284908115232E-4</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="I21" s="17">
+        <f>SUM(I14:I20)</f>
+        <v>1.0542480607368357E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -388,6 +388,38 @@
   </si>
   <si>
     <t>"eg--g"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha*beta/p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha*beta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,14 +427,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00000000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="194" formatCode="0.000000000000_ "/>
+    <numFmt numFmtId="200" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="206" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +486,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +535,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -506,6 +565,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,9 +689,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,10 +707,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,20 +1050,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:U67"/>
+  <dimension ref="A5:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
     <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="19.375" customWidth="1"/>
+    <col min="27" max="27" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:27">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -922,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:27">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -960,8 +1141,17 @@
       <c r="M6" s="2">
         <v>0.22197619682315342</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -987,11 +1177,12 @@
       <c r="I7" s="2">
         <v>0.1808517385031333</v>
       </c>
-      <c r="J7" s="2">
-        <v>0.37548884265867677</v>
+      <c r="J7" s="23">
+        <f>0.375488842658677</f>
+        <v>0.37548884265867699</v>
       </c>
       <c r="K7" s="2">
-        <v>0.4860842284165266</v>
+        <v>0.48608422841652699</v>
       </c>
       <c r="L7" s="2">
         <v>0.42755611263345977</v>
@@ -999,8 +1190,17 @@
       <c r="M7" s="2">
         <v>0.54475874373344024</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="Y7">
+        <v>1.0509583248507353E-3</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>1.0542482372129774E-3</v>
+      </c>
+      <c r="AA7">
+        <v>1.0575381495752194E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1038,8 +1238,12 @@
       <c r="M8" s="2">
         <v>0.1144149571372689</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="Z8">
+        <f>J7*0.01</f>
+        <v>3.7548884265867699E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1282,16 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="10" spans="1:27">
+      <c r="Z10" s="24"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="Z11">
+        <f>(AA7-Y7)/(2*Z8)</f>
+        <v>8.7616780806256723E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1111,8 +1324,9 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="Z12" s="26"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1122,13 +1336,13 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="14">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>2</v>
       </c>
       <c r="G13" s="1"/>
@@ -1158,8 +1372,9 @@
         <f>PRODUCT(I13:K13)</f>
         <v>1.6217301062643134E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="Z13" s="26"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1169,13 +1384,13 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>2</v>
       </c>
       <c r="G14" s="1"/>
@@ -1206,7 +1421,7 @@
         <v>3.0197853696149498E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1216,13 +1431,13 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>2</v>
       </c>
       <c r="G15" s="1"/>
@@ -1253,7 +1468,7 @@
         <v>7.3407715961831882E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1263,13 +1478,13 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="14">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>2</v>
       </c>
       <c r="G16" s="1"/>
@@ -1299,7 +1514,7 @@
         <f t="shared" si="1"/>
         <v>4.8156626567501144E-3</v>
       </c>
-      <c r="U16" s="20">
+      <c r="U16" s="18">
         <f>SUM(R13:R16)</f>
         <v>3.1393520685191384E-2</v>
       </c>
@@ -1308,13 +1523,13 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1">
@@ -1346,19 +1561,19 @@
         <f t="shared" si="0"/>
         <v>2.4178593829442193E-4</v>
       </c>
-      <c r="U17" s="20"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="13">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1">
@@ -1390,19 +1605,19 @@
         <f t="shared" si="0"/>
         <v>2.3276318008623277E-4</v>
       </c>
-      <c r="U18" s="20"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1434,9 +1649,9 @@
         <f t="shared" si="0"/>
         <v>1.4128493575263723E-4</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="18">
         <f>D64</f>
-        <v>3.1393520685191384E-2</v>
+        <v>3.1393520685191398E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2156,8 +2371,10 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2"/>
+    <row r="60" spans="1:6" ht="17.25">
+      <c r="A60" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
@@ -2207,19 +2424,19 @@
       </c>
       <c r="C62" s="8">
         <f>(B62+B61)*J7</f>
-        <v>0.21793037703575435</v>
+        <v>0.21793037703575449</v>
       </c>
       <c r="D62" s="8">
         <f t="shared" ref="D62:F62" si="2">(C62+C61)*K7</f>
-        <v>0.13593122282401066</v>
+        <v>0.13593122282401082</v>
       </c>
       <c r="E62" s="8">
         <f t="shared" si="2"/>
-        <v>6.4110632095063069E-2</v>
+        <v>6.4110632095063153E-2</v>
       </c>
       <c r="F62" s="8">
         <f t="shared" si="2"/>
-        <v>3.5856737790261342E-2</v>
+        <v>3.5856737790261391E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2233,15 +2450,15 @@
       </c>
       <c r="D63" s="8">
         <f t="shared" ref="D63:F63" si="3">SUM(C62:C63)*K9</f>
-        <v>5.5836116783905161E-2</v>
+        <v>5.5836116783905189E-2</v>
       </c>
       <c r="E63" s="8">
         <f t="shared" si="3"/>
-        <v>2.3406496517040059E-2</v>
+        <v>2.3406496517040083E-2</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" si="3"/>
-        <v>1.0401419689087834E-2</v>
+        <v>1.0401419689087846E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2253,17 +2470,17 @@
         <f>SUM(B62:B64)*J8</f>
         <v>4.4548600968396905E-2</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="8">
         <f t="shared" ref="D64:F64" si="4">SUM(C62:C64)*K8</f>
-        <v>3.1393520685191384E-2</v>
+        <v>3.1393520685191398E-2</v>
       </c>
       <c r="E64" s="8">
         <f t="shared" si="4"/>
-        <v>4.4874355133624595E-2</v>
+        <v>4.4874355133624637E-2</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" si="4"/>
-        <v>1.5147565938106872E-2</v>
+        <v>1.5147565938106887E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2281,11 +2498,11 @@
       </c>
       <c r="E65" s="8">
         <f t="shared" si="5"/>
-        <v>5.0666375562841018E-3</v>
+        <v>5.0666375562841036E-3</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" si="5"/>
-        <v>5.9354920904657041E-3</v>
+        <v>5.9354920904657093E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2307,7 +2524,7 @@
       </c>
       <c r="F66" s="9">
         <f>SUM(E65:E66)*M8</f>
-        <v>8.1246229891855518E-4</v>
+        <v>8.124622989185554E-4</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2322,14 +2539,618 @@
         <f>SUM(E66:E67)*M9</f>
         <v>2.4178593829442193E-4</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="20">
         <f>F67+F66</f>
+        <v>1.0542482372129774E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25">
+      <c r="A71" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="9">
+        <f>SUM(C72:C73)*I9</f>
+        <v>2.2647650349359532E-4</v>
+      </c>
+      <c r="C72" s="8">
+        <f t="shared" ref="C72:D72" si="6">SUM(D72:D73)*J9</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="20">
+        <f>B72+B73</f>
         <v>1.0542482372129772E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>1</v>
+      </c>
+      <c r="B73" s="9">
+        <f t="shared" ref="B73:C73" si="7">SUM(C73:C75)*I7</f>
+        <v>8.2777173371938184E-4</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" si="7"/>
+        <v>5.6684405457806521E-4</v>
+      </c>
+      <c r="D73" s="8">
+        <f>SUM(E73:E75)*K7</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="19"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" ref="B72:D74" si="8">SUM(C74:C75)*I9</f>
+        <v>1.6022445295723517E-3</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="8"/>
+        <v>2.3318357756261973E-4</v>
+      </c>
+      <c r="D74" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="8">
+        <f>SUM(F74:F75)*L9</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="8">
+        <f>SUM(C75:C76)*I8</f>
+        <v>4.7318671408379969E-4</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" ref="C75:E75" si="9">SUM(D75:D76)*J8</f>
+        <v>3.7770460557909383E-3</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="9"/>
+        <v>1.5096162393654182E-3</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="19"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" ref="B76:D76" si="10">SUM(C76:C77)*I9</f>
+        <v>2.2404290751183737E-3</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="10"/>
+        <v>3.1607522255436391E-3</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" si="10"/>
+        <v>1.382386967820087E-2</v>
+      </c>
+      <c r="E76" s="8">
+        <f>SUM(F76:F77)*L9</f>
+        <v>1.3965116798336326E-2</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="8">
+        <f>(C77+C78)*I8</f>
+        <v>2.0158775988132448E-4</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" ref="C77:E77" si="11">(D77+D78)*J8</f>
+        <v>2.4467782747256655E-3</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="11"/>
+        <v>6.6386471858338935E-3</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="11"/>
+        <v>4.6906160443999582E-2</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" ref="B78:D78" si="12">C78*I9</f>
+        <v>2.0331503897692659E-4</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="12"/>
+        <v>5.0887363268409692E-4</v>
+      </c>
+      <c r="D78" s="8">
+        <f t="shared" si="12"/>
+        <v>3.2944168183477243E-3</v>
+      </c>
+      <c r="E78" s="8">
+        <f>F78*L9</f>
+        <v>1.4506456163840045E-2</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0.11885010230613731</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="22">
+        <f>B61*B72/I9</f>
+        <v>2.2647650349359532E-4</v>
+      </c>
+      <c r="C83" s="22">
+        <f t="shared" ref="C83:F83" si="13">C61*C72/J9</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="22">
+        <f>B62*B73/I7</f>
+        <v>8.2777173371938184E-4</v>
+      </c>
+      <c r="C84" s="22">
+        <f t="shared" ref="C84:F84" si="14">C62*C73/J7</f>
+        <v>3.2899123622420339E-4</v>
+      </c>
+      <c r="D84" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="22">
+        <f>B63*B74/I9</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="22">
+        <f t="shared" ref="C85:F85" si="15">C63*C74/J9</f>
+        <v>4.2171655392580003E-5</v>
+      </c>
+      <c r="D85" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>2</v>
+      </c>
+      <c r="B86" s="22">
+        <f>B64*B75/I8</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="22">
+        <f t="shared" ref="C86:F86" si="16">C64*C75/J8</f>
+        <v>6.8308534559619386E-4</v>
+      </c>
+      <c r="D86" s="22">
+        <f t="shared" si="16"/>
+        <v>4.3841418307968534E-4</v>
+      </c>
+      <c r="E86" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="22">
+        <f>B65*B76/I9</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="22">
+        <f t="shared" ref="C87:F87" si="17">C65*C76/J9</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="22">
+        <f t="shared" si="17"/>
+        <v>6.1583405413329182E-4</v>
+      </c>
+      <c r="E87" s="22">
+        <f t="shared" si="17"/>
+        <v>5.796991188323226E-4</v>
+      </c>
+      <c r="F87" s="22">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="22">
+        <f>B66*B77/I8</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="22">
+        <f t="shared" ref="C88:F88" si="18">C66*C77/J8</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="22">
+        <f t="shared" si="18"/>
+        <v>4.7454911838065462E-4</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="18"/>
+        <v>8.124622989185554E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="22">
+        <f>B67*B78/I9</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="22">
+        <f t="shared" ref="C89:F89" si="19">C67*C78/J9</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="19"/>
+        <v>2.4178593829442193E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="B90" s="20">
+        <f>SUM(B83:B89)</f>
+        <v>1.0542482372129772E-3</v>
+      </c>
+      <c r="C90" s="20">
+        <f t="shared" ref="C90:F90" si="20">SUM(C83:C89)</f>
+        <v>1.0542482372129774E-3</v>
+      </c>
+      <c r="D90" s="20">
+        <f t="shared" si="20"/>
+        <v>1.0542482372129772E-3</v>
+      </c>
+      <c r="E90" s="20">
+        <f t="shared" si="20"/>
+        <v>1.0542482372129772E-3</v>
+      </c>
+      <c r="F90" s="20">
+        <f t="shared" si="20"/>
+        <v>1.0542482372129774E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="22">
+        <f>B61*B72</f>
+        <v>9.0486274347296102E-5</v>
+      </c>
+      <c r="C96" s="22">
+        <f t="shared" ref="C96:F96" si="21">C61*C72</f>
+        <v>0</v>
+      </c>
+      <c r="D96" s="22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="22">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="22">
+        <f t="shared" ref="B97:F102" si="22">B62*B73</f>
+        <v>1.4970395712690293E-4</v>
+      </c>
+      <c r="C97" s="22">
+        <f t="shared" si="22"/>
+        <v>1.2353253853467354E-4</v>
+      </c>
+      <c r="D97" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A98" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C98" s="30">
+        <f t="shared" si="22"/>
+        <v>6.5140644487988925E-6</v>
+      </c>
+      <c r="D98" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C99" s="32">
+        <f t="shared" si="22"/>
+        <v>1.6826211757868791E-4</v>
+      </c>
+      <c r="D99" s="29">
+        <f t="shared" si="22"/>
+        <v>4.7392168637219108E-5</v>
+      </c>
+      <c r="E99" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="22">
+        <f t="shared" si="22"/>
+        <v>1.3985594016443272E-4</v>
+      </c>
+      <c r="E100" s="22">
+        <f t="shared" si="22"/>
+        <v>7.0756185248344847E-5</v>
+      </c>
+      <c r="F100" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C101" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="22">
+        <f t="shared" si="22"/>
+        <v>9.542482332516667E-5</v>
+      </c>
+      <c r="F101" s="22">
+        <f t="shared" si="22"/>
+        <v>9.2957839106413474E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="C102" s="31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="22">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="22">
+        <f t="shared" si="22"/>
+        <v>2.8736283502477449E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="C106" s="25">
+        <f>C97/J7^2</f>
+        <v>8.7616780806256777E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C63:C64 E75:E76" formulaRange="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2465,12 +3286,12 @@
       <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2">
@@ -2488,7 +3309,7 @@
       <c r="H14" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <f>PRODUCT(D14:H14)</f>
         <v>2.2647648811216289E-4</v>
       </c>
@@ -2498,18 +3319,18 @@
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="14">
-        <v>2</v>
-      </c>
-      <c r="R14" s="14" t="s">
+      <c r="Q14" s="13">
+        <v>2</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2">
@@ -2527,7 +3348,7 @@
       <c r="H15" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <f t="shared" ref="I15:I20" si="0">PRODUCT(D15:H15)</f>
         <v>4.2171644076212896E-5</v>
       </c>
@@ -2537,18 +3358,18 @@
       <c r="P15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="14">
-        <v>2</v>
-      </c>
-      <c r="R15" s="14" t="s">
+      <c r="Q15" s="13">
+        <v>2</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2">
@@ -2566,7 +3387,7 @@
       <c r="H16" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <f t="shared" si="0"/>
         <v>1.0251471657377636E-4</v>
       </c>
@@ -2576,18 +3397,18 @@
       <c r="P16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="14">
-        <v>2</v>
-      </c>
-      <c r="R16" s="14" t="s">
+      <c r="Q16" s="13">
+        <v>2</v>
+      </c>
+      <c r="R16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="3:19">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="2">
@@ -2605,7 +3426,7 @@
       <c r="H17" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f t="shared" si="0"/>
         <v>6.725127830756319E-5</v>
       </c>
@@ -2615,18 +3436,18 @@
       <c r="P17" s="1">
         <v>2</v>
       </c>
-      <c r="Q17" s="14">
-        <v>2</v>
-      </c>
-      <c r="R17" s="14" t="s">
+      <c r="Q17" s="13">
+        <v>2</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="2">
@@ -2644,17 +3465,17 @@
       <c r="H18" s="2">
         <v>0.11885010230613731</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <f t="shared" si="0"/>
         <v>2.4178589099754685E-4</v>
       </c>
-      <c r="O18" s="13">
-        <v>1</v>
-      </c>
-      <c r="P18" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="13" t="s">
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="R18" s="1">
@@ -2665,7 +3486,7 @@
       </c>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="2">
@@ -2683,17 +3504,17 @@
       <c r="H19" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <f t="shared" si="0"/>
         <v>2.3276313455434153E-4</v>
       </c>
-      <c r="O19" s="13">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="13" t="s">
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="1">
@@ -2704,7 +3525,7 @@
       </c>
     </row>
     <row r="20" spans="3:19">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="2">
@@ -2722,17 +3543,17 @@
       <c r="H20" s="2">
         <v>0.1144149571372689</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <f t="shared" si="0"/>
         <v>1.41284908115232E-4</v>
       </c>
-      <c r="O20" s="13">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="13" t="s">
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="12" t="s">
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2743,7 +3564,7 @@
       </c>
     </row>
     <row r="21" spans="3:19">
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <f>SUM(I14:I20)</f>
         <v>1.0542480607368357E-3</v>
       </c>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -264,12 +264,247 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q101" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">t2 softmax </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>확률</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(S)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V101" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>S.T</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>diag(S)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V108" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>matmul(S,S.T)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>diag(S) - matmul(S,S.T)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>L</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> softmax</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미분</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>matmul(  L</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> softmax</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미분</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   ,   diag(S) - matmul(S,S.T)  )</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="42">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,6 +657,14 @@
     <t>e</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss=-log(P) 에 대한 softmax미분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -431,14 +674,14 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0000000000_ "/>
-    <numFmt numFmtId="180" formatCode="0.000000000_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="194" formatCode="0.000000000000_ "/>
-    <numFmt numFmtId="200" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="206" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0.000000000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="181" formatCode="0.000000000000_ "/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,8 +746,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +799,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -643,6 +907,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -652,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,31 +1118,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="206" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -753,6 +1161,72 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,20 +1524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:AA106"/>
+  <dimension ref="A5:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:F102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q121" sqref="Q121:T121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.25" customWidth="1"/>
     <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="25" max="25" width="11" customWidth="1"/>
     <col min="26" max="26" width="19.375" customWidth="1"/>
     <col min="27" max="27" width="12.75" customWidth="1"/>
   </cols>
@@ -1224,7 +1698,8 @@
         <v>2</v>
       </c>
       <c r="I8" s="2">
-        <v>6.8204161449441275E-2</v>
+        <f>0.0682041614494413</f>
+        <v>6.8204161449441303E-2</v>
       </c>
       <c r="J8" s="2">
         <v>0.24632663936280097</v>
@@ -1267,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0.39953934713520967</v>
+        <v>0.39953934713521</v>
       </c>
       <c r="J9" s="2">
         <v>0.15446546710483236</v>
@@ -1324,7 +1799,7 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z12" s="26"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="s">
@@ -1372,7 +1847,7 @@
         <f>PRODUCT(I13:K13)</f>
         <v>1.6217301062643134E-2</v>
       </c>
-      <c r="Z13" s="26"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="s">
@@ -2372,7 +2847,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2545,7 +3020,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2570,7 +3045,7 @@
       </c>
       <c r="B72" s="9">
         <f>SUM(C72:C73)*I9</f>
-        <v>2.2647650349359532E-4</v>
+        <v>2.2647650349359551E-4</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" ref="C72:D72" si="6">SUM(D72:D73)*J9</f>
@@ -2584,7 +3059,7 @@
       <c r="F72" s="19"/>
       <c r="G72" s="20">
         <f>B72+B73</f>
-        <v>1.0542482372129772E-3</v>
+        <v>1.0542482372129774E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2611,8 +3086,8 @@
         <v>0</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" ref="B72:D74" si="8">SUM(C74:C75)*I9</f>
-        <v>1.6022445295723517E-3</v>
+        <f t="shared" ref="B74:D74" si="8">SUM(C74:C75)*I9</f>
+        <v>1.602244529572353E-3</v>
       </c>
       <c r="C74" s="8">
         <f t="shared" si="8"/>
@@ -2634,7 +3109,7 @@
       </c>
       <c r="B75" s="8">
         <f>SUM(C75:C76)*I8</f>
-        <v>4.7318671408379969E-4</v>
+        <v>4.7318671408379991E-4</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" ref="C75:E75" si="9">SUM(D75:D76)*J8</f>
@@ -2656,7 +3131,7 @@
       </c>
       <c r="B76" s="8">
         <f t="shared" ref="B76:D76" si="10">SUM(C76:C77)*I9</f>
-        <v>2.2404290751183737E-3</v>
+        <v>2.2404290751183754E-3</v>
       </c>
       <c r="C76" s="8">
         <f t="shared" si="10"/>
@@ -2678,7 +3153,7 @@
       </c>
       <c r="B77" s="8">
         <f>(C77+C78)*I8</f>
-        <v>2.0158775988132448E-4</v>
+        <v>2.0158775988132456E-4</v>
       </c>
       <c r="C77" s="8">
         <f t="shared" ref="C77:E77" si="11">(D77+D78)*J8</f>
@@ -2702,7 +3177,7 @@
       </c>
       <c r="B78" s="8">
         <f t="shared" ref="B78:D78" si="12">C78*I9</f>
-        <v>2.0331503897692659E-4</v>
+        <v>2.0331503897692675E-4</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" si="12"/>
@@ -2963,7 +3438,7 @@
       </c>
       <c r="B96" s="22">
         <f>B61*B72</f>
-        <v>9.0486274347296102E-5</v>
+        <v>9.0486274347296184E-5</v>
       </c>
       <c r="C96" s="22">
         <f t="shared" ref="C96:F96" si="21">C61*C72</f>
@@ -2982,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:26">
       <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
@@ -3007,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="17.25" thickBot="1">
+    <row r="98" spans="1:26" ht="17.25" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3490,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="29">
         <f t="shared" si="22"/>
         <v>6.5140644487988925E-6</v>
       </c>
@@ -3031,20 +3506,31 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="17.25" thickBot="1">
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
+      <c r="Z98" s="54"/>
+    </row>
+    <row r="99" spans="1:26" ht="17.25" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="28">
+      <c r="B99" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C99" s="32">
+      <c r="C99" s="31">
         <f t="shared" si="22"/>
         <v>1.6826211757868791E-4</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="28">
         <f t="shared" si="22"/>
         <v>4.7392168637219108E-5</v>
       </c>
@@ -3056,8 +3542,19 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="17.25" thickBot="1">
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="37"/>
+      <c r="Y99" s="37"/>
+      <c r="Z99" s="54"/>
+    </row>
+    <row r="100" spans="1:26" ht="17.25" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +3562,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="32">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3081,20 +3578,31 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="17.25" thickBot="1">
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="37"/>
+      <c r="X100" s="37"/>
+      <c r="Y100" s="37"/>
+      <c r="Z100" s="54"/>
+    </row>
+    <row r="101" spans="1:26" ht="17.25" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="28">
+      <c r="B101" s="27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C101" s="32">
+      <c r="C101" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="28">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3106,8 +3614,29 @@
         <f t="shared" si="22"/>
         <v>9.2957839106413474E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="P101" s="37"/>
+      <c r="Q101" s="38">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+      <c r="T101" s="37"/>
+      <c r="U101" s="37"/>
+      <c r="V101" s="39">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="W101" s="40">
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="X101" s="40">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="Y101" s="41">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="Z101" s="54"/>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3644,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="C102" s="31">
+      <c r="C102" s="30">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3131,18 +3660,481 @@
         <f t="shared" si="22"/>
         <v>2.8736283502477449E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="P102" s="37"/>
+      <c r="Q102" s="42">
+        <f>0.375488842658677</f>
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="37"/>
+      <c r="X102" s="37"/>
+      <c r="Y102" s="37"/>
+      <c r="Z102" s="54"/>
+    </row>
+    <row r="103" spans="1:26">
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="C106" s="25">
-        <f>C97/J7^2</f>
-        <v>8.7616780806256777E-4</v>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="38">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+      <c r="T103" s="37"/>
+      <c r="U103" s="37"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="37"/>
+      <c r="X103" s="37"/>
+      <c r="Y103" s="37"/>
+      <c r="Z103" s="54"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="P104" s="37"/>
+      <c r="Q104" s="38">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+      <c r="T104" s="37"/>
+      <c r="U104" s="37"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="37"/>
+      <c r="X104" s="37"/>
+      <c r="Y104" s="37"/>
+      <c r="Z104" s="54"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="P105" s="37"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="37"/>
+      <c r="T105" s="37"/>
+      <c r="U105" s="37"/>
+      <c r="V105" s="37"/>
+      <c r="W105" s="37"/>
+      <c r="X105" s="37"/>
+      <c r="Y105" s="37"/>
+      <c r="Z105" s="54"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" t="s">
+        <v>41</v>
+      </c>
+      <c r="P106" s="37"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="37"/>
+      <c r="T106" s="37"/>
+      <c r="U106" s="37"/>
+      <c r="V106" s="37"/>
+      <c r="W106" s="37"/>
+      <c r="X106" s="37"/>
+      <c r="Y106" s="37"/>
+      <c r="Z106" s="54"/>
+    </row>
+    <row r="107" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="37"/>
+      <c r="T107" s="37"/>
+      <c r="U107" s="37"/>
+      <c r="V107" s="37"/>
+      <c r="W107" s="37"/>
+      <c r="X107" s="37"/>
+      <c r="Y107" s="37"/>
+      <c r="Z107" s="54"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="33">
+        <f>-B96/I6^2/$G$72</f>
+        <v>-0.69506362512328745</v>
+      </c>
+      <c r="C108" s="33">
+        <f>-C96/J6^2/$G$72</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="33">
+        <f t="shared" ref="D108:F108" si="23">-D96/K6^2/$G$72</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="33">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="37"/>
+      <c r="Q108" s="43">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="R108" s="44">
+        <v>0</v>
+      </c>
+      <c r="S108" s="44">
+        <v>0</v>
+      </c>
+      <c r="T108" s="45">
+        <v>0</v>
+      </c>
+      <c r="U108" s="37"/>
+      <c r="V108" s="46">
+        <f t="array" ref="V108:Y111">MMULT(Q101:Q104,V101:Y101)</f>
+        <v>5.0050213723824725E-2</v>
+      </c>
+      <c r="W108" s="44">
+        <v>8.4004007493259564E-2</v>
+      </c>
+      <c r="X108" s="44">
+        <v>5.5107961963151576E-2</v>
+      </c>
+      <c r="Y108" s="45">
+        <v>3.4556867693454292E-2</v>
+      </c>
+      <c r="Z108" s="54"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="33">
+        <f>-B97/I7^2/$G$72</f>
+        <v>-4.3415521376935162</v>
+      </c>
+      <c r="C109" s="33">
+        <f>-C97/J7^2/$G$72</f>
+        <v>-0.83108301928852635</v>
+      </c>
+      <c r="D109" s="33">
+        <f t="shared" ref="D109:F109" si="24">-D97/K7^2/$G$72</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="33">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="37"/>
+      <c r="Q109" s="47">
+        <v>0</v>
+      </c>
+      <c r="R109" s="42">
+        <f>0.375488842658677</f>
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="S109" s="48">
+        <v>0</v>
+      </c>
+      <c r="T109" s="49">
+        <v>0</v>
+      </c>
+      <c r="U109" s="37"/>
+      <c r="V109" s="47">
+        <v>8.4004007493259564E-2</v>
+      </c>
+      <c r="W109" s="48">
+        <v>0.14099187096115268</v>
+      </c>
+      <c r="X109" s="48">
+        <v>9.2492904730339442E-2</v>
+      </c>
+      <c r="Y109" s="49">
+        <v>5.8000059473925447E-2</v>
+      </c>
+      <c r="Z109" s="54"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B110" s="33">
+        <f>-(B99+B101)/I8^2/$G$72</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="33">
+        <f>-(C99+C101)/J8^2/$G$72</f>
+        <v>-2.6303933813881839</v>
+      </c>
+      <c r="D110" s="33">
+        <f t="shared" ref="D110:F110" si="25">-(D99+D101)/K8^2/$G$72</f>
+        <v>-3.8469782002908399</v>
+      </c>
+      <c r="E110" s="33">
+        <f t="shared" si="25"/>
+        <v>-2.2385051286857123</v>
+      </c>
+      <c r="F110" s="33">
+        <f t="shared" si="25"/>
+        <v>-6.7356192831727286</v>
+      </c>
+      <c r="P110" s="37"/>
+      <c r="Q110" s="47">
+        <v>0</v>
+      </c>
+      <c r="R110" s="48">
+        <v>0</v>
+      </c>
+      <c r="S110" s="38">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="T110" s="49">
+        <v>0</v>
+      </c>
+      <c r="U110" s="37"/>
+      <c r="V110" s="47">
+        <v>5.5107961963151576E-2</v>
+      </c>
+      <c r="W110" s="48">
+        <v>9.2492904730339442E-2</v>
+      </c>
+      <c r="X110" s="48">
+        <v>6.0676813259771409E-2</v>
+      </c>
+      <c r="Y110" s="49">
+        <v>3.8048959409538639E-2</v>
+      </c>
+      <c r="Z110" s="54"/>
+    </row>
+    <row r="111" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A111" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="33">
+        <f>-(B98+B100+B102)/I9^2/$G$72</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="33">
+        <f>-(C98+C100+C102)/J9^2/$G$72</f>
+        <v>-0.25896815543514512</v>
+      </c>
+      <c r="D111" s="33">
+        <f t="shared" ref="D111:F111" si="26">-(D98+D100+D102)/K9^2/$G$72</f>
+        <v>-2.5721932886264463</v>
+      </c>
+      <c r="E111" s="33">
+        <f t="shared" si="26"/>
+        <v>-4.5050331041756948</v>
+      </c>
+      <c r="F111" s="33">
+        <f t="shared" si="26"/>
+        <v>-1.9296946655719216</v>
+      </c>
+      <c r="P111" s="37"/>
+      <c r="Q111" s="50">
+        <v>0</v>
+      </c>
+      <c r="R111" s="51">
+        <v>0</v>
+      </c>
+      <c r="S111" s="51">
+        <v>0</v>
+      </c>
+      <c r="T111" s="52">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="U111" s="37"/>
+      <c r="V111" s="50">
+        <v>3.4556867693454292E-2</v>
+      </c>
+      <c r="W111" s="51">
+        <v>5.8000059473925447E-2</v>
+      </c>
+      <c r="X111" s="51">
+        <v>3.8048959409538639E-2</v>
+      </c>
+      <c r="Y111" s="53">
+        <v>2.3859580527914048E-2</v>
+      </c>
+      <c r="Z111" s="54"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="P112" s="37"/>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="37"/>
+      <c r="T112" s="37"/>
+      <c r="U112" s="37"/>
+      <c r="V112" s="37"/>
+      <c r="W112" s="37"/>
+      <c r="X112" s="37"/>
+      <c r="Y112" s="37"/>
+      <c r="Z112" s="54"/>
+    </row>
+    <row r="113" spans="16:26">
+      <c r="P113" s="37"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="37"/>
+      <c r="T113" s="37"/>
+      <c r="U113" s="37"/>
+      <c r="V113" s="37"/>
+      <c r="W113" s="37"/>
+      <c r="X113" s="37"/>
+      <c r="Y113" s="37"/>
+      <c r="Z113" s="54"/>
+    </row>
+    <row r="114" spans="16:26" ht="17.25" thickBot="1">
+      <c r="V114" s="37"/>
+      <c r="W114" s="37"/>
+      <c r="X114" s="37"/>
+      <c r="Y114" s="37"/>
+      <c r="Z114" s="54"/>
+    </row>
+    <row r="115" spans="16:26" ht="17.25" thickBot="1">
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="V115" s="46">
+        <f>Q108-V108</f>
+        <v>0.17366883714986533</v>
+      </c>
+      <c r="W115" s="44">
+        <f t="shared" ref="W115:Y115" si="27">R108-W108</f>
+        <v>-8.4004007493259564E-2</v>
+      </c>
+      <c r="X115" s="44">
+        <f t="shared" si="27"/>
+        <v>-5.5107961963151576E-2</v>
+      </c>
+      <c r="Y115" s="45">
+        <f t="shared" si="27"/>
+        <v>-3.4556867693454292E-2</v>
+      </c>
+      <c r="Z115" s="54"/>
+    </row>
+    <row r="116" spans="16:26" ht="17.25" thickBot="1">
+      <c r="Q116" s="34">
+        <v>0</v>
+      </c>
+      <c r="R116" s="35">
+        <v>-0.83108301928852635</v>
+      </c>
+      <c r="S116" s="35">
+        <v>-2.6303933813881839</v>
+      </c>
+      <c r="T116" s="36">
+        <v>-0.25896815543514512</v>
+      </c>
+      <c r="V116" s="47">
+        <f t="shared" ref="V116:V118" si="28">Q109-V109</f>
+        <v>-8.4004007493259564E-2</v>
+      </c>
+      <c r="W116" s="48">
+        <f t="shared" ref="W116:W118" si="29">R109-W109</f>
+        <v>0.23449697169752431</v>
+      </c>
+      <c r="X116" s="48">
+        <f t="shared" ref="X116:X118" si="30">S109-X109</f>
+        <v>-9.2492904730339442E-2</v>
+      </c>
+      <c r="Y116" s="49">
+        <f t="shared" ref="Y116:Y118" si="31">T109-Y109</f>
+        <v>-5.8000059473925447E-2</v>
+      </c>
+      <c r="Z116" s="54"/>
+    </row>
+    <row r="117" spans="16:26">
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="T117" s="5"/>
+      <c r="V117" s="47">
+        <f t="shared" si="28"/>
+        <v>-5.5107961963151576E-2</v>
+      </c>
+      <c r="W117" s="48">
+        <f t="shared" si="29"/>
+        <v>-9.2492904730339442E-2</v>
+      </c>
+      <c r="X117" s="48">
+        <f t="shared" si="30"/>
+        <v>0.18564982610302955</v>
+      </c>
+      <c r="Y117" s="49">
+        <f t="shared" si="31"/>
+        <v>-3.8048959409538639E-2</v>
+      </c>
+      <c r="Z117" s="54"/>
+    </row>
+    <row r="118" spans="16:26" ht="17.25" thickBot="1">
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="V118" s="50">
+        <f t="shared" si="28"/>
+        <v>-3.4556867693454292E-2</v>
+      </c>
+      <c r="W118" s="51">
+        <f t="shared" si="29"/>
+        <v>-5.8000059473925447E-2</v>
+      </c>
+      <c r="X118" s="51">
+        <f t="shared" si="30"/>
+        <v>-3.8048959409538639E-2</v>
+      </c>
+      <c r="Y118" s="53">
+        <f t="shared" si="31"/>
+        <v>0.13060588657691832</v>
+      </c>
+      <c r="Z118" s="54"/>
+    </row>
+    <row r="119" spans="16:26">
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="V119" s="37"/>
+      <c r="W119" s="37"/>
+      <c r="X119" s="37"/>
+      <c r="Y119" s="37"/>
+      <c r="Z119" s="54"/>
+    </row>
+    <row r="121" spans="16:26">
+      <c r="Q121">
+        <f t="array" ref="Q121:T121">MMULT(Q116:T116,V115:Y118)</f>
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="R121">
+        <v>6.342644159274928E-2</v>
+      </c>
+      <c r="S121">
+        <v>-0.40160932247670478</v>
+      </c>
+      <c r="T121">
+        <v>0.11446383001026585</v>
       </c>
     </row>
   </sheetData>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -122,7 +123,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Groud True: "122"
+          <t>Groud True: "egg"
 Length 5 sequence</t>
         </r>
         <r>
@@ -165,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> "122"</t>
+          <t xml:space="preserve"> "egg"</t>
         </r>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>이</t>
+          <t>가</t>
         </r>
         <r>
           <rPr>
@@ -504,7 +505,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -664,6 +665,32 @@
   <si>
     <t>Loss=-log(P) 에 대한 softmax미분</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(a)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(e)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(g)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,6 +1255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1526,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q121" sqref="Q121:T121"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1578,8 +1611,8 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3">
-        <v>0</v>
+      <c r="A6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B6" s="2">
         <v>0.74273745999999996</v>
@@ -1597,8 +1630,8 @@
         <v>0.1487472</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="3">
-        <v>0</v>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>0.35140475291221579</v>
@@ -1626,8 +1659,8 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="3">
-        <v>1</v>
+      <c r="A7" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>7.8476329999999997E-2</v>
@@ -1645,8 +1678,8 @@
         <v>1.0465200699999999</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="3">
-        <v>1</v>
+      <c r="H7" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="2">
         <v>0.1808517385031333</v>
@@ -1675,8 +1708,8 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="3">
-        <v>2</v>
+      <c r="A8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B8" s="2">
         <v>-0.89669566000000001</v>
@@ -1694,8 +1727,8 @@
         <v>-0.51399114000000001</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="3">
-        <v>2</v>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I8" s="2">
         <f>0.0682041614494413</f>
@@ -1805,20 +1838,20 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13">
-        <v>2</v>
+      <c r="F13" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
@@ -1853,20 +1886,20 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="13">
-        <v>2</v>
+      <c r="F14" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
@@ -1900,20 +1933,20 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="13">
-        <v>2</v>
+      <c r="F15" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
@@ -1947,20 +1980,20 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="13">
-        <v>2</v>
+      <c r="F16" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
@@ -1998,19 +2031,19 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
-        <v>2</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="B17" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="1"/>
@@ -2042,20 +2075,20 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
+      <c r="E18" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2" t="s">
@@ -2086,20 +2119,20 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="B19" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
-        <v>2</v>
+      <c r="F19" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2" t="s">
@@ -2130,11 +2163,11 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="1"/>
       <c r="N20" s="11">
         <f>SUM(N13:N19)</f>
@@ -2891,8 +2924,8 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3">
-        <v>1</v>
+      <c r="A62" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B62" s="2">
         <v>0.1808517385031333</v>
@@ -2937,8 +2970,8 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3">
-        <v>2</v>
+      <c r="A64" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="8">
@@ -2981,8 +3014,8 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3">
-        <v>2</v>
+      <c r="A66" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="8">
@@ -3007,9 +3040,18 @@
         <v>0</v>
       </c>
       <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="C67" s="8">
+        <f>SUM(B66:B67)*J9</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="8">
+        <f t="shared" ref="D67:E67" si="6">SUM(C66:C67)*K9</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="F67" s="9">
         <f>SUM(E66:E67)*M9</f>
         <v>2.4178593829442193E-4</v>
@@ -3048,11 +3090,11 @@
         <v>2.2647650349359551E-4</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" ref="C72:D72" si="6">SUM(D72:D73)*J9</f>
+        <f t="shared" ref="C72:D72" si="7">SUM(D72:D73)*J9</f>
         <v>0</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E72" s="8"/>
@@ -3063,15 +3105,15 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3">
-        <v>1</v>
+      <c r="A73" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B73" s="9">
-        <f t="shared" ref="B73:C73" si="7">SUM(C73:C75)*I7</f>
+        <f t="shared" ref="B73:C73" si="8">SUM(C73:C75)*I7</f>
         <v>8.2777173371938184E-4</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6684405457806521E-4</v>
       </c>
       <c r="D73" s="8">
@@ -3086,15 +3128,15 @@
         <v>0</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" ref="B74:D74" si="8">SUM(C74:C75)*I9</f>
+        <f t="shared" ref="B74:D74" si="9">SUM(C74:C75)*I9</f>
         <v>1.602244529572353E-3</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3318357756261973E-4</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
@@ -3104,23 +3146,23 @@
       <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="3">
-        <v>2</v>
+      <c r="A75" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B75" s="8">
         <f>SUM(C75:C76)*I8</f>
         <v>4.7318671408379991E-4</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:E75" si="9">SUM(D75:D76)*J8</f>
+        <f t="shared" ref="C75:E75" si="10">SUM(D75:D76)*J8</f>
         <v>3.7770460557909383E-3</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5096162393654182E-3</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F75" s="19"/>
@@ -3130,15 +3172,15 @@
         <v>0</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" ref="B76:D76" si="10">SUM(C76:C77)*I9</f>
+        <f t="shared" ref="B76:D76" si="11">SUM(C76:C77)*I9</f>
         <v>2.2404290751183754E-3</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1607522255436391E-3</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.382386967820087E-2</v>
       </c>
       <c r="E76" s="8">
@@ -3148,23 +3190,23 @@
       <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3">
-        <v>2</v>
+      <c r="A77" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B77" s="8">
         <f>(C77+C78)*I8</f>
         <v>2.0158775988132456E-4</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:E77" si="11">(D77+D78)*J8</f>
+        <f t="shared" ref="C77:E77" si="12">(D77+D78)*J8</f>
         <v>2.4467782747256655E-3</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.6386471858338935E-3</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.6906160443999582E-2</v>
       </c>
       <c r="F77" s="8">
@@ -3176,15 +3218,15 @@
         <v>0</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" ref="B78:D78" si="12">C78*I9</f>
+        <f t="shared" ref="B78:D78" si="13">C78*I9</f>
         <v>2.0331503897692675E-4</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.0887363268409692E-4</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.2944168183477243E-3</v>
       </c>
       <c r="E78" s="8">
@@ -3224,19 +3266,19 @@
         <v>2.2647650349359532E-4</v>
       </c>
       <c r="C83" s="22">
-        <f t="shared" ref="C83:F83" si="13">C61*C72/J9</f>
+        <f t="shared" ref="C83:F83" si="14">C61*C72/J9</f>
         <v>0</v>
       </c>
       <c r="D83" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3249,19 +3291,19 @@
         <v>8.2777173371938184E-4</v>
       </c>
       <c r="C84" s="22">
-        <f t="shared" ref="C84:F84" si="14">C62*C73/J7</f>
+        <f t="shared" ref="C84:F84" si="15">C62*C73/J7</f>
         <v>3.2899123622420339E-4</v>
       </c>
       <c r="D84" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3274,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" ref="C85:F85" si="15">C63*C74/J9</f>
+        <f t="shared" ref="C85:F85" si="16">C63*C74/J9</f>
         <v>4.2171655392580003E-5</v>
       </c>
       <c r="D85" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3299,19 +3341,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" ref="C86:F86" si="16">C64*C75/J8</f>
+        <f t="shared" ref="C86:F86" si="17">C64*C75/J8</f>
         <v>6.8308534559619386E-4</v>
       </c>
       <c r="D86" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.3841418307968534E-4</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3324,19 +3366,19 @@
         <v>0</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" ref="C87:F87" si="17">C65*C76/J9</f>
+        <f t="shared" ref="C87:F87" si="18">C65*C76/J9</f>
         <v>0</v>
       </c>
       <c r="D87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.1583405413329182E-4</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.796991188323226E-4</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3349,19 +3391,19 @@
         <v>0</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" ref="C88:F88" si="18">C66*C77/J8</f>
+        <f t="shared" ref="C88:F88" si="19">C66*C77/J8</f>
         <v>0</v>
       </c>
       <c r="D88" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.7454911838065462E-4</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.124622989185554E-4</v>
       </c>
     </row>
@@ -3374,19 +3416,19 @@
         <v>0</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" ref="C89:F89" si="19">C67*C78/J9</f>
+        <f t="shared" ref="C89:F89" si="20">C67*C78/J9</f>
         <v>0</v>
       </c>
       <c r="D89" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4178593829442193E-4</v>
       </c>
     </row>
@@ -3396,19 +3438,19 @@
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="C90" s="20">
-        <f t="shared" ref="C90:F90" si="20">SUM(C83:C89)</f>
+        <f t="shared" ref="C90:F90" si="21">SUM(C83:C89)</f>
         <v>1.0542482372129774E-3</v>
       </c>
       <c r="D90" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="E90" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="F90" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
@@ -3441,19 +3483,19 @@
         <v>9.0486274347296184E-5</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" ref="C96:F96" si="21">C61*C72</f>
+        <f t="shared" ref="C96:F96" si="22">C61*C72</f>
         <v>0</v>
       </c>
       <c r="D96" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -3462,23 +3504,23 @@
         <v>39</v>
       </c>
       <c r="B97" s="22">
-        <f t="shared" ref="B97:F102" si="22">B62*B73</f>
+        <f t="shared" ref="B97:F102" si="23">B62*B73</f>
         <v>1.4970395712690293E-4</v>
       </c>
       <c r="C97" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.2353253853467354E-4</v>
       </c>
       <c r="D97" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3487,23 +3529,23 @@
         <v>0</v>
       </c>
       <c r="B98" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C98" s="29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.5140644487988925E-6</v>
       </c>
       <c r="D98" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P98" s="37"/>
@@ -3523,23 +3565,23 @@
         <v>38</v>
       </c>
       <c r="B99" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C99" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6826211757868791E-4</v>
       </c>
       <c r="D99" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.7392168637219108E-5</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P99" s="37"/>
@@ -3559,23 +3601,23 @@
         <v>0</v>
       </c>
       <c r="B100" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C100" s="32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D100" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3985594016443272E-4</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.0756185248344847E-5</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P100" s="37"/>
@@ -3595,23 +3637,23 @@
         <v>38</v>
       </c>
       <c r="B101" s="27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C101" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D101" s="28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.542482332516667E-5</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.2957839106413474E-5</v>
       </c>
       <c r="P101" s="37"/>
@@ -3641,23 +3683,23 @@
         <v>0</v>
       </c>
       <c r="B102" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="C102" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D102" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.8736283502477449E-5</v>
       </c>
       <c r="P102" s="37"/>
@@ -3781,15 +3823,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" ref="D108:F108" si="23">-D96/K6^2/$G$72</f>
+        <f t="shared" ref="D108:F108" si="24">-D96/K6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E108" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P108" s="37"/>
@@ -3834,15 +3876,15 @@
         <v>-0.83108301928852635</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" ref="D109:F109" si="24">-D97/K7^2/$G$72</f>
+        <f t="shared" ref="D109:F109" si="25">-D97/K7^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E109" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P109" s="37"/>
@@ -3887,15 +3929,15 @@
         <v>-2.6303933813881839</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" ref="D110:F110" si="25">-(D99+D101)/K8^2/$G$72</f>
+        <f t="shared" ref="D110:F110" si="26">-(D99+D101)/K8^2/$G$72</f>
         <v>-3.8469782002908399</v>
       </c>
       <c r="E110" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.2385051286857123</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-6.7356192831727286</v>
       </c>
       <c r="P110" s="37"/>
@@ -3939,15 +3981,15 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" ref="D111:F111" si="26">-(D98+D100+D102)/K9^2/$G$72</f>
+        <f t="shared" ref="D111:F111" si="27">-(D98+D100+D102)/K9^2/$G$72</f>
         <v>-2.5721932886264463</v>
       </c>
       <c r="E111" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-4.5050331041756948</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-1.9296946655719216</v>
       </c>
       <c r="P111" s="37"/>
@@ -4021,15 +4063,15 @@
         <v>0.17366883714986533</v>
       </c>
       <c r="W115" s="44">
-        <f t="shared" ref="W115:Y115" si="27">R108-W108</f>
+        <f t="shared" ref="W115:Y115" si="28">R108-W108</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="X115" s="44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="Y115" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="Z115" s="54"/>
@@ -4048,19 +4090,19 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="V116" s="47">
-        <f t="shared" ref="V116:V118" si="28">Q109-V109</f>
+        <f t="shared" ref="V116:V118" si="29">Q109-V109</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="W116" s="48">
-        <f t="shared" ref="W116:W118" si="29">R109-W109</f>
+        <f t="shared" ref="W116:W118" si="30">R109-W109</f>
         <v>0.23449697169752431</v>
       </c>
       <c r="X116" s="48">
-        <f t="shared" ref="X116:X118" si="30">S109-X109</f>
+        <f t="shared" ref="X116:X118" si="31">S109-X109</f>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="Y116" s="49">
-        <f t="shared" ref="Y116:Y118" si="31">T109-Y109</f>
+        <f t="shared" ref="Y116:Y118" si="32">T109-Y109</f>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="Z116" s="54"/>
@@ -4071,19 +4113,19 @@
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="V117" s="47">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="W117" s="48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="X117" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.18564982610302955</v>
       </c>
       <c r="Y117" s="49">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="Z117" s="54"/>
@@ -4094,19 +4136,19 @@
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
       <c r="V118" s="50">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="W118" s="51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="X118" s="51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="Y118" s="53">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.13060588657691832</v>
       </c>
       <c r="Z118" s="54"/>
@@ -4152,7 +4194,7 @@
   <dimension ref="C6:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4565,4 +4607,303 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="56"/>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.35140475291221579</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1787166513658611</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.24930190636846544</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22197619682315342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.1808517385031333</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.48608422841652699</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.42755611263345977</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.54475874373344024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.8204161449441303E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.10809907723401639</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.20108523992372618</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.1144149571372689</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.39953934713521</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.22710004298359593</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.12205674107434862</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.11885010230613731</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25">
+      <c r="B18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.39953934713520967</v>
+      </c>
+      <c r="D19" s="8">
+        <f>C19*D6</f>
+        <v>6.1715031881999928E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ref="E19:G19" si="0">D19*E6</f>
+        <v>1.4015486393136177E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7106845937180787E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0331503897692659E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.1808517385031333</v>
+      </c>
+      <c r="D20" s="8">
+        <f>SUM(C19:C20)*D4</f>
+        <v>0.21793037703575449</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20:G20" si="1">SUM(D19:D20)*E4</f>
+        <v>0.13593122282401082</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4110632095063153E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5856737790261391E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8">
+        <f>SUM(C20:C21)*D6</f>
+        <v>2.793534826460748E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ref="E21:G21" si="2">SUM(D20:D21)*E6</f>
+        <v>5.5836116783905189E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>2.3406496517040083E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0401419689087846E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8">
+        <f>SUM(C20:C22)*D5</f>
+        <v>4.4548600968396905E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ref="E22:G22" si="3">SUM(D20:D22)*E5</f>
+        <v>3.1393520685191398E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="3"/>
+        <v>4.4874355133624637E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="3"/>
+        <v>1.5147565938106887E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8">
+        <f>SUM(C22:C23)*D6</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ref="E23:G23" si="4">SUM(D22:D23)*E6</f>
+        <v>1.0116989194782001E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>5.0666375562841036E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="4"/>
+        <v>5.9354920904657093E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8">
+        <f>SUM(C23:C24)*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:G24" si="5">SUM(D23:D24)*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="5"/>
+        <v>2.0343771995384838E-3</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="5"/>
+        <v>8.124622989185554E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8">
+        <f>SUM(C24:C25)*D6</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ref="E25:G25" si="6">SUM(D24:D25)*E6</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="6"/>
+        <v>2.4178593829442193E-4</v>
+      </c>
+      <c r="H25" s="20">
+        <f>G25+G24</f>
+        <v>1.0542482372129774E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -421,6 +421,16 @@
           </rPr>
           <t>미분</t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(C108:C111)</t>
+        </r>
       </text>
     </comment>
     <comment ref="Q121" authorId="0">
@@ -496,7 +506,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">   ,   diag(S) - matmul(S,S.T)  )</t>
+          <t xml:space="preserve">   ,   diag(S) - matmul(S,S.T)  )
+tensorflow </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비교</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -505,7 +558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -692,6 +745,10 @@
   <si>
     <t>t2</t>
   </si>
+  <si>
+    <t>확률합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -833,7 +890,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1081,6 +1138,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1090,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1261,6 +1363,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:AA121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="I109" workbookViewId="0">
+      <selection activeCell="W130" sqref="V130:W130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1791,6 +1902,29 @@
       </c>
     </row>
     <row r="10" spans="1:27">
+      <c r="H10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2">
+        <f>SUM(I6:I9)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:M10" si="0">SUM(J6:J9)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:27">
@@ -1921,11 +2055,11 @@
         <v>0.1144149571372689</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14:N19" si="0">PRODUCT(I14:M14)</f>
+        <f t="shared" ref="N14:N19" si="1">PRODUCT(I14:M14)</f>
         <v>4.2171655392580003E-5</v>
       </c>
       <c r="R14">
-        <f t="shared" ref="R14:R16" si="1">PRODUCT(I14:K14)</f>
+        <f t="shared" ref="R14:R16" si="2">PRODUCT(I14:K14)</f>
         <v>3.0197853696149498E-3</v>
       </c>
     </row>
@@ -1968,11 +2102,11 @@
         <v>0.1144149571372689</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.02514732730608E-4</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3407715961831882E-3</v>
       </c>
     </row>
@@ -2015,11 +2149,11 @@
         <v>0.1144149571372689</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.725129146290196E-5</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8156626567501144E-3</v>
       </c>
       <c r="U16" s="18">
@@ -2066,7 +2200,7 @@
         <v>0.11885010230613731</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4178593829442193E-4</v>
       </c>
       <c r="U17" s="18"/>
@@ -2110,7 +2244,7 @@
         <v>0.1144149571372689</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3276318008623277E-4</v>
       </c>
       <c r="U18" s="18"/>
@@ -2154,7 +2288,7 @@
         <v>0.1144149571372689</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4128493575263723E-4</v>
       </c>
       <c r="U19" s="18">
@@ -2935,15 +3069,15 @@
         <v>0.21793037703575449</v>
       </c>
       <c r="D62" s="8">
-        <f t="shared" ref="D62:F62" si="2">(C62+C61)*K7</f>
+        <f t="shared" ref="D62:F62" si="3">(C62+C61)*K7</f>
         <v>0.13593122282401082</v>
       </c>
       <c r="E62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4110632095063153E-2</v>
       </c>
       <c r="F62" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
@@ -2957,15 +3091,15 @@
         <v>2.793534826460748E-2</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" ref="D63:F63" si="3">SUM(C62:C63)*K9</f>
+        <f t="shared" ref="D63:F63" si="4">SUM(C62:C63)*K9</f>
         <v>5.5836116783905189E-2</v>
       </c>
       <c r="E63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3406496517040083E-2</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
@@ -2979,15 +3113,15 @@
         <v>4.4548600968396905E-2</v>
       </c>
       <c r="D64" s="8">
-        <f t="shared" ref="D64:F64" si="4">SUM(C62:C64)*K8</f>
+        <f t="shared" ref="D64:F64" si="5">SUM(C62:C64)*K8</f>
         <v>3.1393520685191398E-2</v>
       </c>
       <c r="E64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4874355133624637E-2</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
@@ -2997,19 +3131,19 @@
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="8">
-        <f t="shared" ref="C65:F65" si="5">SUM(B64:B65)*J9</f>
+        <f t="shared" ref="C65:F65" si="6">SUM(B64:B65)*J9</f>
         <v>0</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0116989194782001E-2</v>
       </c>
       <c r="E65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0666375562841036E-3</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
@@ -3045,11 +3179,11 @@
         <v>0</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" ref="D67:E67" si="6">SUM(C66:C67)*K9</f>
+        <f t="shared" ref="D67:E67" si="7">SUM(C66:C67)*K9</f>
         <v>0</v>
       </c>
       <c r="E67" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F67" s="9">
@@ -3090,11 +3224,11 @@
         <v>2.2647650349359551E-4</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" ref="C72:D72" si="7">SUM(D72:D73)*J9</f>
+        <f t="shared" ref="C72:D72" si="8">SUM(D72:D73)*J9</f>
         <v>0</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E72" s="8"/>
@@ -3109,11 +3243,11 @@
         <v>43</v>
       </c>
       <c r="B73" s="9">
-        <f t="shared" ref="B73:C73" si="8">SUM(C73:C75)*I7</f>
+        <f t="shared" ref="B73:C73" si="9">SUM(C73:C75)*I7</f>
         <v>8.2777173371938184E-4</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6684405457806521E-4</v>
       </c>
       <c r="D73" s="8">
@@ -3128,15 +3262,15 @@
         <v>0</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" ref="B74:D74" si="9">SUM(C74:C75)*I9</f>
+        <f t="shared" ref="B74:D74" si="10">SUM(C74:C75)*I9</f>
         <v>1.602244529572353E-3</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3318357756261973E-4</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
@@ -3154,15 +3288,15 @@
         <v>4.7318671408379991E-4</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:E75" si="10">SUM(D75:D76)*J8</f>
+        <f t="shared" ref="C75:E75" si="11">SUM(D75:D76)*J8</f>
         <v>3.7770460557909383E-3</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5096162393654182E-3</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F75" s="19"/>
@@ -3172,15 +3306,15 @@
         <v>0</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" ref="B76:D76" si="11">SUM(C76:C77)*I9</f>
+        <f t="shared" ref="B76:D76" si="12">SUM(C76:C77)*I9</f>
         <v>2.2404290751183754E-3</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1607522255436391E-3</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.382386967820087E-2</v>
       </c>
       <c r="E76" s="8">
@@ -3198,15 +3332,15 @@
         <v>2.0158775988132456E-4</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:E77" si="12">(D77+D78)*J8</f>
+        <f t="shared" ref="C77:E77" si="13">(D77+D78)*J8</f>
         <v>2.4467782747256655E-3</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.6386471858338935E-3</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.6906160443999582E-2</v>
       </c>
       <c r="F77" s="8">
@@ -3218,15 +3352,15 @@
         <v>0</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" ref="B78:D78" si="13">C78*I9</f>
+        <f t="shared" ref="B78:D78" si="14">C78*I9</f>
         <v>2.0331503897692675E-4</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0887363268409692E-4</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2944168183477243E-3</v>
       </c>
       <c r="E78" s="8">
@@ -3266,19 +3400,19 @@
         <v>2.2647650349359532E-4</v>
       </c>
       <c r="C83" s="22">
-        <f t="shared" ref="C83:F83" si="14">C61*C72/J9</f>
+        <f t="shared" ref="C83:F83" si="15">C61*C72/J9</f>
         <v>0</v>
       </c>
       <c r="D83" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3291,19 +3425,19 @@
         <v>8.2777173371938184E-4</v>
       </c>
       <c r="C84" s="22">
-        <f t="shared" ref="C84:F84" si="15">C62*C73/J7</f>
+        <f t="shared" ref="C84:F84" si="16">C62*C73/J7</f>
         <v>3.2899123622420339E-4</v>
       </c>
       <c r="D84" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3316,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" ref="C85:F85" si="16">C63*C74/J9</f>
+        <f t="shared" ref="C85:F85" si="17">C63*C74/J9</f>
         <v>4.2171655392580003E-5</v>
       </c>
       <c r="D85" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3341,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" ref="C86:F86" si="17">C64*C75/J8</f>
+        <f t="shared" ref="C86:F86" si="18">C64*C75/J8</f>
         <v>6.8308534559619386E-4</v>
       </c>
       <c r="D86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.3841418307968534E-4</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3366,19 +3500,19 @@
         <v>0</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" ref="C87:F87" si="18">C65*C76/J9</f>
+        <f t="shared" ref="C87:F87" si="19">C65*C76/J9</f>
         <v>0</v>
       </c>
       <c r="D87" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.1583405413329182E-4</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.796991188323226E-4</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3391,19 +3525,19 @@
         <v>0</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" ref="C88:F88" si="19">C66*C77/J8</f>
+        <f t="shared" ref="C88:F88" si="20">C66*C77/J8</f>
         <v>0</v>
       </c>
       <c r="D88" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.7454911838065462E-4</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.124622989185554E-4</v>
       </c>
     </row>
@@ -3416,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" ref="C89:F89" si="20">C67*C78/J9</f>
+        <f t="shared" ref="C89:F89" si="21">C67*C78/J9</f>
         <v>0</v>
       </c>
       <c r="D89" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.4178593829442193E-4</v>
       </c>
     </row>
@@ -3438,19 +3572,19 @@
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="C90" s="20">
-        <f t="shared" ref="C90:F90" si="21">SUM(C83:C89)</f>
+        <f t="shared" ref="C90:F90" si="22">SUM(C83:C89)</f>
         <v>1.0542482372129774E-3</v>
       </c>
       <c r="D90" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="E90" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0542482372129772E-3</v>
       </c>
       <c r="F90" s="20">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
@@ -3483,19 +3617,19 @@
         <v>9.0486274347296184E-5</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" ref="C96:F96" si="22">C61*C72</f>
+        <f t="shared" ref="C96:F96" si="23">C61*C72</f>
         <v>0</v>
       </c>
       <c r="D96" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3504,23 +3638,23 @@
         <v>39</v>
       </c>
       <c r="B97" s="22">
-        <f t="shared" ref="B97:F102" si="23">B62*B73</f>
+        <f t="shared" ref="B97:F102" si="24">B62*B73</f>
         <v>1.4970395712690293E-4</v>
       </c>
       <c r="C97" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.2353253853467354E-4</v>
       </c>
       <c r="D97" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -3529,23 +3663,23 @@
         <v>0</v>
       </c>
       <c r="B98" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="C98" s="29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.5140644487988925E-6</v>
       </c>
       <c r="D98" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P98" s="37"/>
@@ -3565,23 +3699,23 @@
         <v>38</v>
       </c>
       <c r="B99" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="C99" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.6826211757868791E-4</v>
       </c>
       <c r="D99" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.7392168637219108E-5</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P99" s="37"/>
@@ -3601,23 +3735,23 @@
         <v>0</v>
       </c>
       <c r="B100" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="C100" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D100" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3985594016443272E-4</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0756185248344847E-5</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P100" s="37"/>
@@ -3637,23 +3771,23 @@
         <v>38</v>
       </c>
       <c r="B101" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="C101" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D101" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.542482332516667E-5</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.2957839106413474E-5</v>
       </c>
       <c r="P101" s="37"/>
@@ -3683,23 +3817,23 @@
         <v>0</v>
       </c>
       <c r="B102" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="C102" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D102" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.8736283502477449E-5</v>
       </c>
       <c r="P102" s="37"/>
@@ -3823,15 +3957,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" ref="D108:F108" si="24">-D96/K6^2/$G$72</f>
+        <f t="shared" ref="D108:F108" si="25">-D96/K6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E108" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P108" s="37"/>
@@ -3863,7 +3997,7 @@
       </c>
       <c r="Z108" s="54"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="17.25" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -3876,15 +4010,15 @@
         <v>-0.83108301928852635</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" ref="D109:F109" si="25">-D97/K7^2/$G$72</f>
+        <f t="shared" ref="D109:F109" si="26">-D97/K7^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E109" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P109" s="37"/>
@@ -3916,7 +4050,7 @@
       </c>
       <c r="Z109" s="54"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="17.25" thickBot="1">
       <c r="A110" s="3" t="s">
         <v>38</v>
       </c>
@@ -3924,20 +4058,20 @@
         <f>-(B99+B101)/I8^2/$G$72</f>
         <v>0</v>
       </c>
-      <c r="C110" s="33">
+      <c r="C110" s="31">
         <f>-(C99+C101)/J8^2/$G$72</f>
         <v>-2.6303933813881839</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" ref="D110:F110" si="26">-(D99+D101)/K8^2/$G$72</f>
+        <f t="shared" ref="D110:F110" si="27">-(D99+D101)/K8^2/$G$72</f>
         <v>-3.8469782002908399</v>
       </c>
       <c r="E110" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-2.2385051286857123</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-6.7356192831727286</v>
       </c>
       <c r="P110" s="37"/>
@@ -3981,15 +4115,15 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" ref="D111:F111" si="27">-(D98+D100+D102)/K9^2/$G$72</f>
+        <f t="shared" ref="D111:F111" si="28">-(D98+D100+D102)/K9^2/$G$72</f>
         <v>-2.5721932886264463</v>
       </c>
       <c r="E111" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-4.5050331041756948</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1.9296946655719216</v>
       </c>
       <c r="P111" s="37"/>
@@ -4063,15 +4197,15 @@
         <v>0.17366883714986533</v>
       </c>
       <c r="W115" s="44">
-        <f t="shared" ref="W115:Y115" si="28">R108-W108</f>
+        <f t="shared" ref="W115:Y115" si="29">R108-W108</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="X115" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="Y115" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="Z115" s="54"/>
@@ -4090,19 +4224,19 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="V116" s="47">
-        <f t="shared" ref="V116:V118" si="29">Q109-V109</f>
+        <f t="shared" ref="V116:V118" si="30">Q109-V109</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="W116" s="48">
-        <f t="shared" ref="W116:W118" si="30">R109-W109</f>
+        <f t="shared" ref="W116:W118" si="31">R109-W109</f>
         <v>0.23449697169752431</v>
       </c>
       <c r="X116" s="48">
-        <f t="shared" ref="X116:X118" si="31">S109-X109</f>
+        <f t="shared" ref="X116:X118" si="32">S109-X109</f>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="Y116" s="49">
-        <f t="shared" ref="Y116:Y118" si="32">T109-Y109</f>
+        <f t="shared" ref="Y116:Y118" si="33">T109-Y109</f>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="Z116" s="54"/>
@@ -4113,19 +4247,19 @@
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
       <c r="V117" s="47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="W117" s="48">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="X117" s="48">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.18564982610302955</v>
       </c>
       <c r="Y117" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="Z117" s="54"/>
@@ -4136,19 +4270,19 @@
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
       <c r="V118" s="50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="W118" s="51">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="X118" s="51">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="Y118" s="53">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.13060588657691832</v>
       </c>
       <c r="Z118" s="54"/>
@@ -4164,18 +4298,19 @@
       <c r="Y119" s="37"/>
       <c r="Z119" s="54"/>
     </row>
-    <row r="121" spans="16:26">
-      <c r="Q121">
+    <row r="120" spans="16:26" ht="17.25" thickBot="1"/>
+    <row r="121" spans="16:26" ht="17.25" thickBot="1">
+      <c r="Q121" s="57">
         <f t="array" ref="Q121:T121">MMULT(Q116:T116,V115:Y118)</f>
         <v>0.22371905087369007</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="58">
         <v>6.342644159274928E-2</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="58">
         <v>-0.40160932247670478</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="59">
         <v>0.11446383001026585</v>
       </c>
     </row>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24735" windowHeight="11145"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q101" authorId="0">
+    <comment ref="J109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V101" authorId="0">
+    <comment ref="O109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q108" authorId="0">
+    <comment ref="J116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V108" authorId="0">
+    <comment ref="O116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V115" authorId="0">
+    <comment ref="O123" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q116" authorId="0">
+    <comment ref="J124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q121" authorId="0">
+    <comment ref="J129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -765,7 +765,7 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1380,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1458,6 +1463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1492,6 +1498,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1667,14 +1674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:AA121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:AA129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I109" workbookViewId="0">
-      <selection activeCell="W130" sqref="V130:W130"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="6" width="12.875" customWidth="1"/>
@@ -1686,7 +1693,7 @@
     <col min="27" max="27" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1721,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1769,7 +1776,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1818,7 +1825,7 @@
         <v>1.0575381495752194E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>3.7548884265867699E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="H10" s="14" t="s">
         <v>49</v>
       </c>
@@ -1927,13 +1934,13 @@
       </c>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Z11">
         <f>(AA7-Y7)/(2*Z8)</f>
         <v>8.7616780806256723E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1968,7 +1975,7 @@
       </c>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2023,7 @@
       </c>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>3.0197853696149498E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>7.3407715961831882E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2161,7 +2168,7 @@
         <v>3.1393520685191384E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +2212,7 @@
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2256,7 @@
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2296,7 +2303,7 @@
         <v>3.1393520685191398E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2308,7 +2315,7 @@
         <v>1.0542482372129772E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2320,7 +2327,7 @@
         <v>6.8549273374158561</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2328,7 +2335,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2336,7 +2343,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2425,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2444,7 +2451,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2477,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -2496,7 +2503,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2529,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -2548,7 +2555,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2581,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>0.39953931999999998</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2703,7 +2710,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2729,7 +2736,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2762,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -2781,7 +2788,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2814,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -2833,7 +2840,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2866,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>0.18085171</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +2943,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -2946,7 +2953,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2956,7 +2963,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2966,7 +2973,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
@@ -2976,7 +2983,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -2986,7 +2993,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +3003,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>0.18085171</v>
       </c>
@@ -3013,7 +3020,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25">
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
         <v>36</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3064,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -3081,7 +3088,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +3154,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3202,7 @@
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25">
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>37</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +3245,7 @@
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>43</v>
       </c>
@@ -3257,7 +3264,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3286,7 @@
       </c>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>44</v>
       </c>
@@ -3301,7 +3308,7 @@
       </c>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3330,7 @@
       </c>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
@@ -3347,7 +3354,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3378,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -3441,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3541,7 +3548,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>2.4178593829442193E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90" s="20">
         <f>SUM(B83:B89)</f>
         <v>1.0542482372129772E-3</v>
@@ -3588,7 +3595,7 @@
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="17.25" thickBot="1">
+    <row r="98" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
@@ -3682,19 +3689,8 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="37"/>
-      <c r="X98" s="37"/>
-      <c r="Y98" s="37"/>
-      <c r="Z98" s="54"/>
-    </row>
-    <row r="99" spans="1:26" ht="17.25" thickBot="1">
+    </row>
+    <row r="99" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
@@ -3718,19 +3714,8 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P99" s="37"/>
-      <c r="Q99" s="37"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="37"/>
-      <c r="T99" s="37"/>
-      <c r="U99" s="37"/>
-      <c r="V99" s="37"/>
-      <c r="W99" s="37"/>
-      <c r="X99" s="37"/>
-      <c r="Y99" s="37"/>
-      <c r="Z99" s="54"/>
-    </row>
-    <row r="100" spans="1:26" ht="17.25" thickBot="1">
+    </row>
+    <row r="100" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
@@ -3754,19 +3739,8 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P100" s="37"/>
-      <c r="Q100" s="37"/>
-      <c r="R100" s="37"/>
-      <c r="S100" s="37"/>
-      <c r="T100" s="37"/>
-      <c r="U100" s="37"/>
-      <c r="V100" s="37"/>
-      <c r="W100" s="37"/>
-      <c r="X100" s="37"/>
-      <c r="Y100" s="37"/>
-      <c r="Z100" s="54"/>
-    </row>
-    <row r="101" spans="1:26" ht="17.25" thickBot="1">
+    </row>
+    <row r="101" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>38</v>
       </c>
@@ -3790,29 +3764,8 @@
         <f t="shared" si="24"/>
         <v>9.2957839106413474E-5</v>
       </c>
-      <c r="P101" s="37"/>
-      <c r="Q101" s="38">
-        <v>0.22371905087369007</v>
-      </c>
-      <c r="R101" s="37"/>
-      <c r="S101" s="37"/>
-      <c r="T101" s="37"/>
-      <c r="U101" s="37"/>
-      <c r="V101" s="39">
-        <v>0.22371905087369007</v>
-      </c>
-      <c r="W101" s="40">
-        <v>0.37548884265867699</v>
-      </c>
-      <c r="X101" s="40">
-        <v>0.24632663936280097</v>
-      </c>
-      <c r="Y101" s="41">
-        <v>0.15446546710483236</v>
-      </c>
-      <c r="Z101" s="54"/>
-    </row>
-    <row r="102" spans="1:26">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
@@ -3836,86 +3789,31 @@
         <f t="shared" si="24"/>
         <v>2.8736283502477449E-5</v>
       </c>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="42">
-        <f>0.375488842658677</f>
-        <v>0.37548884265867699</v>
-      </c>
-      <c r="R102" s="37"/>
-      <c r="S102" s="37"/>
-      <c r="T102" s="37"/>
-      <c r="U102" s="37"/>
-      <c r="V102" s="37"/>
-      <c r="W102" s="37"/>
-      <c r="X102" s="37"/>
-      <c r="Y102" s="37"/>
-      <c r="Z102" s="54"/>
-    </row>
-    <row r="103" spans="1:26">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="38">
-        <v>0.24632663936280097</v>
-      </c>
-      <c r="R103" s="37"/>
-      <c r="S103" s="37"/>
-      <c r="T103" s="37"/>
-      <c r="U103" s="37"/>
-      <c r="V103" s="37"/>
-      <c r="W103" s="37"/>
-      <c r="X103" s="37"/>
-      <c r="Y103" s="37"/>
-      <c r="Z103" s="54"/>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="P104" s="37"/>
-      <c r="Q104" s="38">
-        <v>0.15446546710483236</v>
-      </c>
-      <c r="R104" s="37"/>
-      <c r="S104" s="37"/>
-      <c r="T104" s="37"/>
-      <c r="U104" s="37"/>
-      <c r="V104" s="37"/>
-      <c r="W104" s="37"/>
-      <c r="X104" s="37"/>
-      <c r="Y104" s="37"/>
-      <c r="Z104" s="54"/>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="P105" s="37"/>
-      <c r="Q105" s="37"/>
-      <c r="R105" s="37"/>
-      <c r="S105" s="37"/>
-      <c r="T105" s="37"/>
-      <c r="U105" s="37"/>
-      <c r="V105" s="37"/>
-      <c r="W105" s="37"/>
-      <c r="X105" s="37"/>
-      <c r="Y105" s="37"/>
-      <c r="Z105" s="54"/>
-    </row>
-    <row r="106" spans="1:26">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
       <c r="P106" s="37"/>
       <c r="Q106" s="37"/>
       <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="37"/>
-      <c r="X106" s="37"/>
-      <c r="Y106" s="37"/>
-      <c r="Z106" s="54"/>
-    </row>
-    <row r="107" spans="1:26" ht="17.25" thickBot="1">
+      <c r="S106" s="54"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -3932,19 +3830,19 @@
       <c r="F107" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
       <c r="P107" s="37"/>
       <c r="Q107" s="37"/>
       <c r="R107" s="37"/>
-      <c r="S107" s="37"/>
-      <c r="T107" s="37"/>
-      <c r="U107" s="37"/>
-      <c r="V107" s="37"/>
-      <c r="W107" s="37"/>
-      <c r="X107" s="37"/>
-      <c r="Y107" s="37"/>
-      <c r="Z107" s="54"/>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="S107" s="54"/>
+    </row>
+    <row r="108" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>21</v>
       </c>
@@ -3968,36 +3866,19 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
       <c r="P108" s="37"/>
-      <c r="Q108" s="43">
-        <v>0.22371905087369007</v>
-      </c>
-      <c r="R108" s="44">
-        <v>0</v>
-      </c>
-      <c r="S108" s="44">
-        <v>0</v>
-      </c>
-      <c r="T108" s="45">
-        <v>0</v>
-      </c>
-      <c r="U108" s="37"/>
-      <c r="V108" s="46">
-        <f t="array" ref="V108:Y111">MMULT(Q101:Q104,V101:Y101)</f>
-        <v>5.0050213723824725E-2</v>
-      </c>
-      <c r="W108" s="44">
-        <v>8.4004007493259564E-2</v>
-      </c>
-      <c r="X108" s="44">
-        <v>5.5107961963151576E-2</v>
-      </c>
-      <c r="Y108" s="45">
-        <v>3.4556867693454292E-2</v>
-      </c>
-      <c r="Z108" s="54"/>
-    </row>
-    <row r="109" spans="1:26" ht="17.25" thickBot="1">
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37"/>
+      <c r="S108" s="54"/>
+    </row>
+    <row r="109" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
@@ -4021,36 +3902,29 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P109" s="37"/>
-      <c r="Q109" s="47">
-        <v>0</v>
-      </c>
-      <c r="R109" s="42">
-        <f>0.375488842658677</f>
+      <c r="I109" s="37"/>
+      <c r="J109" s="38">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
+      <c r="O109" s="39">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="P109" s="40">
         <v>0.37548884265867699</v>
       </c>
-      <c r="S109" s="48">
-        <v>0</v>
-      </c>
-      <c r="T109" s="49">
-        <v>0</v>
-      </c>
-      <c r="U109" s="37"/>
-      <c r="V109" s="47">
-        <v>8.4004007493259564E-2</v>
-      </c>
-      <c r="W109" s="48">
-        <v>0.14099187096115268</v>
-      </c>
-      <c r="X109" s="48">
-        <v>9.2492904730339442E-2</v>
-      </c>
-      <c r="Y109" s="49">
-        <v>5.8000059473925447E-2</v>
-      </c>
-      <c r="Z109" s="54"/>
-    </row>
-    <row r="110" spans="1:26" ht="17.25" thickBot="1">
+      <c r="Q109" s="40">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="R109" s="41">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="S109" s="54"/>
+    </row>
+    <row r="110" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>38</v>
       </c>
@@ -4074,35 +3948,22 @@
         <f t="shared" si="27"/>
         <v>-6.7356192831727286</v>
       </c>
+      <c r="I110" s="37"/>
+      <c r="J110" s="42">
+        <f>0.375488842658677</f>
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
+      <c r="O110" s="37"/>
       <c r="P110" s="37"/>
-      <c r="Q110" s="47">
-        <v>0</v>
-      </c>
-      <c r="R110" s="48">
-        <v>0</v>
-      </c>
-      <c r="S110" s="38">
-        <v>0.24632663936280097</v>
-      </c>
-      <c r="T110" s="49">
-        <v>0</v>
-      </c>
-      <c r="U110" s="37"/>
-      <c r="V110" s="47">
-        <v>5.5107961963151576E-2</v>
-      </c>
-      <c r="W110" s="48">
-        <v>9.2492904730339442E-2</v>
-      </c>
-      <c r="X110" s="48">
-        <v>6.0676813259771409E-2</v>
-      </c>
-      <c r="Y110" s="49">
-        <v>3.8048959409538639E-2</v>
-      </c>
-      <c r="Z110" s="54"/>
-    </row>
-    <row r="111" spans="1:26" ht="17.25" thickBot="1">
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37"/>
+      <c r="S110" s="54"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>0</v>
       </c>
@@ -4126,191 +3987,349 @@
         <f t="shared" si="28"/>
         <v>-1.9296946655719216</v>
       </c>
+      <c r="I111" s="37"/>
+      <c r="J111" s="38">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="K111" s="37"/>
+      <c r="L111" s="37"/>
+      <c r="M111" s="37"/>
+      <c r="N111" s="37"/>
+      <c r="O111" s="37"/>
       <c r="P111" s="37"/>
-      <c r="Q111" s="50">
-        <v>0</v>
-      </c>
-      <c r="R111" s="51">
-        <v>0</v>
-      </c>
-      <c r="S111" s="51">
-        <v>0</v>
-      </c>
-      <c r="T111" s="52">
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="54"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I112" s="37"/>
+      <c r="J112" s="38">
         <v>0.15446546710483236</v>
       </c>
-      <c r="U111" s="37"/>
-      <c r="V111" s="50">
-        <v>3.4556867693454292E-2</v>
-      </c>
-      <c r="W111" s="51">
-        <v>5.8000059473925447E-2</v>
-      </c>
-      <c r="X111" s="51">
-        <v>3.8048959409538639E-2</v>
-      </c>
-      <c r="Y111" s="53">
-        <v>2.3859580527914048E-2</v>
-      </c>
-      <c r="Z111" s="54"/>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="37"/>
+      <c r="O112" s="37"/>
       <c r="P112" s="37"/>
       <c r="Q112" s="37"/>
       <c r="R112" s="37"/>
-      <c r="S112" s="37"/>
-      <c r="T112" s="37"/>
-      <c r="U112" s="37"/>
-      <c r="V112" s="37"/>
-      <c r="W112" s="37"/>
-      <c r="X112" s="37"/>
-      <c r="Y112" s="37"/>
-      <c r="Z112" s="54"/>
-    </row>
-    <row r="113" spans="16:26">
+      <c r="S112" s="54"/>
+    </row>
+    <row r="113" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="37"/>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="37"/>
+      <c r="O113" s="37"/>
       <c r="P113" s="37"/>
       <c r="Q113" s="37"/>
       <c r="R113" s="37"/>
-      <c r="S113" s="37"/>
-      <c r="T113" s="37"/>
-      <c r="U113" s="37"/>
-      <c r="V113" s="37"/>
-      <c r="W113" s="37"/>
-      <c r="X113" s="37"/>
-      <c r="Y113" s="37"/>
-      <c r="Z113" s="54"/>
-    </row>
-    <row r="114" spans="16:26" ht="17.25" thickBot="1">
-      <c r="V114" s="37"/>
-      <c r="W114" s="37"/>
-      <c r="X114" s="37"/>
-      <c r="Y114" s="37"/>
-      <c r="Z114" s="54"/>
-    </row>
-    <row r="115" spans="16:26" ht="17.25" thickBot="1">
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="V115" s="46">
-        <f>Q108-V108</f>
+      <c r="S113" s="54"/>
+    </row>
+    <row r="114" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+      <c r="P114" s="37"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="54"/>
+    </row>
+    <row r="115" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="37"/>
+      <c r="L115" s="37"/>
+      <c r="M115" s="37"/>
+      <c r="N115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="54"/>
+    </row>
+    <row r="116" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I116" s="37"/>
+      <c r="J116" s="43">
+        <v>0.22371905087369007</v>
+      </c>
+      <c r="K116" s="44">
+        <v>0</v>
+      </c>
+      <c r="L116" s="44">
+        <v>0</v>
+      </c>
+      <c r="M116" s="45">
+        <v>0</v>
+      </c>
+      <c r="N116" s="37"/>
+      <c r="O116" s="46">
+        <f t="array" ref="O116:R119">MMULT(J109:J112,O109:R109)</f>
+        <v>5.0050213723824725E-2</v>
+      </c>
+      <c r="P116" s="44">
+        <v>8.4004007493259564E-2</v>
+      </c>
+      <c r="Q116" s="44">
+        <v>5.5107961963151576E-2</v>
+      </c>
+      <c r="R116" s="45">
+        <v>3.4556867693454292E-2</v>
+      </c>
+      <c r="S116" s="54"/>
+    </row>
+    <row r="117" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I117" s="37"/>
+      <c r="J117" s="47">
+        <v>0</v>
+      </c>
+      <c r="K117" s="42">
+        <f>0.375488842658677</f>
+        <v>0.37548884265867699</v>
+      </c>
+      <c r="L117" s="48">
+        <v>0</v>
+      </c>
+      <c r="M117" s="49">
+        <v>0</v>
+      </c>
+      <c r="N117" s="37"/>
+      <c r="O117" s="47">
+        <v>8.4004007493259564E-2</v>
+      </c>
+      <c r="P117" s="48">
+        <v>0.14099187096115268</v>
+      </c>
+      <c r="Q117" s="48">
+        <v>9.2492904730339442E-2</v>
+      </c>
+      <c r="R117" s="49">
+        <v>5.8000059473925447E-2</v>
+      </c>
+      <c r="S117" s="54"/>
+    </row>
+    <row r="118" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I118" s="37"/>
+      <c r="J118" s="47">
+        <v>0</v>
+      </c>
+      <c r="K118" s="48">
+        <v>0</v>
+      </c>
+      <c r="L118" s="38">
+        <v>0.24632663936280097</v>
+      </c>
+      <c r="M118" s="49">
+        <v>0</v>
+      </c>
+      <c r="N118" s="37"/>
+      <c r="O118" s="47">
+        <v>5.5107961963151576E-2</v>
+      </c>
+      <c r="P118" s="48">
+        <v>9.2492904730339442E-2</v>
+      </c>
+      <c r="Q118" s="48">
+        <v>6.0676813259771409E-2</v>
+      </c>
+      <c r="R118" s="49">
+        <v>3.8048959409538639E-2</v>
+      </c>
+      <c r="S118" s="54"/>
+    </row>
+    <row r="119" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I119" s="37"/>
+      <c r="J119" s="50">
+        <v>0</v>
+      </c>
+      <c r="K119" s="51">
+        <v>0</v>
+      </c>
+      <c r="L119" s="51">
+        <v>0</v>
+      </c>
+      <c r="M119" s="52">
+        <v>0.15446546710483236</v>
+      </c>
+      <c r="N119" s="37"/>
+      <c r="O119" s="50">
+        <v>3.4556867693454292E-2</v>
+      </c>
+      <c r="P119" s="51">
+        <v>5.8000059473925447E-2</v>
+      </c>
+      <c r="Q119" s="51">
+        <v>3.8048959409538639E-2</v>
+      </c>
+      <c r="R119" s="53">
+        <v>2.3859580527914048E-2</v>
+      </c>
+      <c r="S119" s="54"/>
+    </row>
+    <row r="120" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="37"/>
+      <c r="O120" s="37"/>
+      <c r="P120" s="37"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="54"/>
+    </row>
+    <row r="121" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="37"/>
+      <c r="L121" s="37"/>
+      <c r="M121" s="37"/>
+      <c r="N121" s="37"/>
+      <c r="O121" s="37"/>
+      <c r="P121" s="37"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="54"/>
+    </row>
+    <row r="122" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="54"/>
+    </row>
+    <row r="123" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="O123" s="46">
+        <f>J116-O116</f>
         <v>0.17366883714986533</v>
       </c>
-      <c r="W115" s="44">
-        <f t="shared" ref="W115:Y115" si="29">R108-W108</f>
+      <c r="P123" s="44">
+        <f t="shared" ref="P123:R123" si="29">K116-P116</f>
         <v>-8.4004007493259564E-2</v>
       </c>
-      <c r="X115" s="44">
+      <c r="Q123" s="44">
         <f t="shared" si="29"/>
         <v>-5.5107961963151576E-2</v>
       </c>
-      <c r="Y115" s="45">
+      <c r="R123" s="45">
         <f t="shared" si="29"/>
         <v>-3.4556867693454292E-2</v>
       </c>
-      <c r="Z115" s="54"/>
-    </row>
-    <row r="116" spans="16:26" ht="17.25" thickBot="1">
-      <c r="Q116" s="34">
-        <v>0</v>
-      </c>
-      <c r="R116" s="35">
+      <c r="S123" s="54"/>
+    </row>
+    <row r="124" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J124" s="34">
+        <v>0</v>
+      </c>
+      <c r="K124" s="35">
         <v>-0.83108301928852635</v>
       </c>
-      <c r="S116" s="35">
+      <c r="L124" s="35">
         <v>-2.6303933813881839</v>
       </c>
-      <c r="T116" s="36">
+      <c r="M124" s="36">
         <v>-0.25896815543514512</v>
       </c>
-      <c r="V116" s="47">
-        <f t="shared" ref="V116:V118" si="30">Q109-V109</f>
+      <c r="O124" s="47">
+        <f t="shared" ref="O124:O126" si="30">J117-O117</f>
         <v>-8.4004007493259564E-2</v>
       </c>
-      <c r="W116" s="48">
-        <f t="shared" ref="W116:W118" si="31">R109-W109</f>
+      <c r="P124" s="48">
+        <f t="shared" ref="P124:P126" si="31">K117-P117</f>
         <v>0.23449697169752431</v>
       </c>
-      <c r="X116" s="48">
-        <f t="shared" ref="X116:X118" si="32">S109-X109</f>
+      <c r="Q124" s="48">
+        <f t="shared" ref="Q124:Q126" si="32">L117-Q117</f>
         <v>-9.2492904730339442E-2</v>
       </c>
-      <c r="Y116" s="49">
-        <f t="shared" ref="Y116:Y118" si="33">T109-Y109</f>
+      <c r="R124" s="49">
+        <f t="shared" ref="R124:R126" si="33">M117-R117</f>
         <v>-5.8000059473925447E-2</v>
       </c>
-      <c r="Z116" s="54"/>
-    </row>
-    <row r="117" spans="16:26">
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="V117" s="47">
+      <c r="S124" s="54"/>
+    </row>
+    <row r="125" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="O125" s="47">
         <f t="shared" si="30"/>
         <v>-5.5107961963151576E-2</v>
       </c>
-      <c r="W117" s="48">
+      <c r="P125" s="48">
         <f t="shared" si="31"/>
         <v>-9.2492904730339442E-2</v>
       </c>
-      <c r="X117" s="48">
+      <c r="Q125" s="48">
         <f t="shared" si="32"/>
         <v>0.18564982610302955</v>
       </c>
-      <c r="Y117" s="49">
+      <c r="R125" s="49">
         <f t="shared" si="33"/>
         <v>-3.8048959409538639E-2</v>
       </c>
-      <c r="Z117" s="54"/>
-    </row>
-    <row r="118" spans="16:26" ht="17.25" thickBot="1">
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="V118" s="50">
+      <c r="S125" s="54"/>
+    </row>
+    <row r="126" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="O126" s="50">
         <f t="shared" si="30"/>
         <v>-3.4556867693454292E-2</v>
       </c>
-      <c r="W118" s="51">
+      <c r="P126" s="51">
         <f t="shared" si="31"/>
         <v>-5.8000059473925447E-2</v>
       </c>
-      <c r="X118" s="51">
+      <c r="Q126" s="51">
         <f t="shared" si="32"/>
         <v>-3.8048959409538639E-2</v>
       </c>
-      <c r="Y118" s="53">
+      <c r="R126" s="53">
         <f t="shared" si="33"/>
         <v>0.13060588657691832</v>
       </c>
-      <c r="Z118" s="54"/>
-    </row>
-    <row r="119" spans="16:26">
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="V119" s="37"/>
-      <c r="W119" s="37"/>
-      <c r="X119" s="37"/>
-      <c r="Y119" s="37"/>
-      <c r="Z119" s="54"/>
-    </row>
-    <row r="120" spans="16:26" ht="17.25" thickBot="1"/>
-    <row r="121" spans="16:26" ht="17.25" thickBot="1">
-      <c r="Q121" s="57">
-        <f t="array" ref="Q121:T121">MMULT(Q116:T116,V115:Y118)</f>
+      <c r="S126" s="54"/>
+    </row>
+    <row r="127" spans="9:19" x14ac:dyDescent="0.3">
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
+      <c r="O127" s="37"/>
+      <c r="P127" s="37"/>
+      <c r="Q127" s="37"/>
+      <c r="R127" s="37"/>
+      <c r="S127" s="54"/>
+    </row>
+    <row r="128" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="129" spans="10:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J129" s="57">
+        <f t="array" ref="J129:M129">MMULT(J124:M124,O123:R126)</f>
         <v>0.22371905087369007</v>
       </c>
-      <c r="R121" s="58">
+      <c r="K129" s="58">
         <v>6.342644159274928E-2</v>
       </c>
-      <c r="S121" s="58">
+      <c r="L129" s="58">
         <v>-0.40160932247670478</v>
       </c>
-      <c r="T121" s="59">
+      <c r="M129" s="59">
         <v>0.11446383001026585</v>
       </c>
     </row>
@@ -4325,20 +4344,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:19">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
@@ -4358,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:19">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4378,7 +4397,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="8" spans="3:19">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -4398,7 +4417,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -4418,7 +4437,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="10" spans="3:19">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -4438,7 +4457,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="13" spans="3:19">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -4459,7 +4478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:19">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
@@ -4498,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:19">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
@@ -4537,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:19">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
@@ -4576,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
@@ -4615,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -4654,7 +4673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
@@ -4693,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
@@ -4732,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:19">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
       <c r="I21" s="16">
         <f>SUM(I14:I20)</f>
         <v>1.0542480607368357E-3</v>
@@ -4745,19 +4764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="56"/>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -4775,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4795,7 +4814,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
@@ -4835,7 +4854,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4855,7 +4874,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25">
+    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -4875,7 +4894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4899,7 +4918,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4923,7 +4942,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -4945,7 +4964,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -4989,7 +5008,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
@@ -5011,7 +5030,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24735" windowHeight="11145"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -342,6 +342,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="A120" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rescaling</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O123" authorId="0">
       <text>
         <r>
@@ -558,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -753,7 +767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -765,7 +779,7 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1192,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +1385,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1498,7 +1514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1674,14 +1689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AA129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5:AA130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="6" width="12.875" customWidth="1"/>
@@ -1693,7 +1708,7 @@
     <col min="27" max="27" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1728,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="2">
-        <v>0.35140475291221579</v>
+        <v>0.35140475291221601</v>
       </c>
       <c r="J6" s="2">
         <v>0.22371905087369007</v>
@@ -1776,7 +1791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="2">
-        <v>0.1808517385031333</v>
+        <v>0.18085173850313299</v>
       </c>
       <c r="J7" s="23">
         <f>0.375488842658677</f>
@@ -1825,7 +1840,7 @@
         <v>1.0575381495752194E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +1884,7 @@
         <v>3.7548884265867699E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1923,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27">
       <c r="H10" s="14" t="s">
         <v>49</v>
       </c>
@@ -1934,13 +1949,13 @@
       </c>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27">
       <c r="Z11">
         <f>(AA7-Y7)/(2*Z8)</f>
         <v>8.7616780806256723E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1990,7 @@
       </c>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2023,7 +2038,7 @@
       </c>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2050,7 +2065,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J14" s="2">
-        <v>0.15446546710483236</v>
+        <v>0.154465467104832</v>
       </c>
       <c r="K14" s="2">
         <v>0.10809907723401639</v>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N19" si="1">PRODUCT(I14:M14)</f>
-        <v>4.2171655392580003E-5</v>
+        <v>4.2171655392579908E-5</v>
       </c>
       <c r="R14">
         <f t="shared" ref="R14:R16" si="2">PRODUCT(I14:K14)</f>
-        <v>3.0197853696149498E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+        <v>3.0197853696149425E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J15" s="2">
-        <v>0.37548884265867677</v>
+        <v>0.37548884265867699</v>
       </c>
       <c r="K15" s="2">
         <v>0.10809907723401639</v>
@@ -2110,14 +2125,14 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" si="1"/>
-        <v>1.02514732730608E-4</v>
+        <v>1.0251473273060807E-4</v>
       </c>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>7.3407715961831882E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+        <v>7.3407715961831925E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2144,7 +2159,7 @@
         <v>0.1808517385031333</v>
       </c>
       <c r="J16" s="2">
-        <v>0.24632663936280097</v>
+        <v>0.246326639362801</v>
       </c>
       <c r="K16" s="2">
         <v>0.10809907723401639</v>
@@ -2168,7 +2183,7 @@
         <v>3.1393520685191384E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2212,7 +2227,7 @@
       </c>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2271,7 @@
       </c>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2318,7 @@
         <v>3.1393520685191398E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="B20" s="55"/>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2315,7 +2330,7 @@
         <v>1.0542482372129772E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2327,7 +2342,7 @@
         <v>6.8549273374158561</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2335,7 +2350,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2343,7 +2358,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -2399,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2440,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2451,7 +2466,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2492,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -2503,7 +2518,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2544,7 @@
       <c r="S31" s="7"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -2555,7 +2570,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2596,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="B34" s="2">
         <v>0.39953931999999998</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2725,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2736,7 +2751,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2777,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -2788,7 +2803,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2829,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -2840,7 +2855,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2881,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="B45" s="2">
         <v>0.18085171</v>
       </c>
@@ -2913,7 +2928,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2933,7 +2948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +2958,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -2953,7 +2968,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2978,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -2973,7 +2988,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2998,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="3">
         <v>2</v>
       </c>
@@ -2993,7 +3008,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3018,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="B56" s="2">
         <v>0.18085171</v>
       </c>
@@ -3020,7 +3035,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="17.25">
       <c r="A60" s="26" t="s">
         <v>36</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3079,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
         <v>43</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +3125,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
         <v>44</v>
       </c>
@@ -3132,7 +3147,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3169,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>44</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>0</v>
       </c>
@@ -3202,7 +3217,29 @@
         <v>1.0542482372129774E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
+      <c r="B68">
+        <f>SUM(B61:B67)</f>
+        <v>0.58039108563834296</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:F68" si="8">SUM(C61:C67)</f>
+        <v>0.3521293581507588</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>0.24729333588102559</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>0.14120318309526855</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>6.8598778784111733E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.25">
       <c r="A71" s="26" t="s">
         <v>37</v>
       </c>
@@ -3222,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>0</v>
       </c>
@@ -3231,30 +3268,30 @@
         <v>2.2647650349359551E-4</v>
       </c>
       <c r="C72" s="8">
-        <f t="shared" ref="C72:D72" si="8">SUM(D72:D73)*J9</f>
+        <f t="shared" ref="C72:D72" si="9">SUM(D72:D73)*J9</f>
         <v>0</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20">
         <f>B72+B73</f>
-        <v>1.0542482372129774E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.0542482372129759E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B73" s="9">
-        <f t="shared" ref="B73:C73" si="9">SUM(C73:C75)*I7</f>
-        <v>8.2777173371938184E-4</v>
+        <f t="shared" ref="B73:C73" si="10">SUM(C73:C75)*I7</f>
+        <v>8.2777173371938043E-4</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6684405457806521E-4</v>
       </c>
       <c r="D73" s="8">
@@ -3264,20 +3301,20 @@
       <c r="E73" s="8"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="8">
-        <f t="shared" ref="B74:D74" si="10">SUM(C74:C75)*I9</f>
+        <f t="shared" ref="B74:D74" si="11">SUM(C74:C75)*I9</f>
         <v>1.602244529572353E-3</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3318357756261973E-4</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
@@ -3286,7 +3323,7 @@
       </c>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>44</v>
       </c>
@@ -3295,33 +3332,33 @@
         <v>4.7318671408379991E-4</v>
       </c>
       <c r="C75" s="8">
-        <f t="shared" ref="C75:E75" si="11">SUM(D75:D76)*J8</f>
+        <f t="shared" ref="C75:E75" si="12">SUM(D75:D76)*J8</f>
         <v>3.7770460557909383E-3</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5096162393654182E-3</v>
       </c>
       <c r="E75" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B76" s="8">
-        <f t="shared" ref="B76:D76" si="12">SUM(C76:C77)*I9</f>
+        <f t="shared" ref="B76:D76" si="13">SUM(C76:C77)*I9</f>
         <v>2.2404290751183754E-3</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1607522255436391E-3</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.382386967820087E-2</v>
       </c>
       <c r="E76" s="8">
@@ -3330,7 +3367,7 @@
       </c>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>44</v>
       </c>
@@ -3339,35 +3376,35 @@
         <v>2.0158775988132456E-4</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" ref="C77:E77" si="13">(D77+D78)*J8</f>
+        <f t="shared" ref="C77:E77" si="14">(D77+D78)*J8</f>
         <v>2.4467782747256655E-3</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.6386471858338935E-3</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.6906160443999582E-2</v>
       </c>
       <c r="F77" s="8">
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="8">
-        <f t="shared" ref="B78:D78" si="14">C78*I9</f>
+        <f t="shared" ref="B78:D78" si="15">C78*I9</f>
         <v>2.0331503897692675E-4</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.0887363268409692E-4</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2944168183477243E-3</v>
       </c>
       <c r="E78" s="8">
@@ -3378,7 +3415,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -3398,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -3407,48 +3444,48 @@
         <v>2.2647650349359532E-4</v>
       </c>
       <c r="C83" s="22">
-        <f t="shared" ref="C83:F83" si="15">C61*C72/J9</f>
+        <f t="shared" ref="C83:F83" si="16">C61*C72/J9</f>
         <v>0</v>
       </c>
       <c r="D83" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E83" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F83" s="22">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="3">
         <v>1</v>
       </c>
       <c r="B84" s="22">
         <f>B62*B73/I7</f>
-        <v>8.2777173371938184E-4</v>
+        <v>8.2777173371938173E-4</v>
       </c>
       <c r="C84" s="22">
-        <f t="shared" ref="C84:F84" si="16">C62*C73/J7</f>
+        <f t="shared" ref="C84:F84" si="17">C62*C73/J7</f>
         <v>3.2899123622420339E-4</v>
       </c>
       <c r="D84" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E84" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F84" s="22">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="3" t="s">
         <v>0</v>
       </c>
@@ -3457,23 +3494,23 @@
         <v>0</v>
       </c>
       <c r="C85" s="22">
-        <f t="shared" ref="C85:F85" si="17">C63*C74/J9</f>
+        <f t="shared" ref="C85:F85" si="18">C63*C74/J9</f>
         <v>4.2171655392580003E-5</v>
       </c>
       <c r="D85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E85" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F85" s="22">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="3">
         <v>2</v>
       </c>
@@ -3482,23 +3519,23 @@
         <v>0</v>
       </c>
       <c r="C86" s="22">
-        <f t="shared" ref="C86:F86" si="18">C64*C75/J8</f>
+        <f t="shared" ref="C86:F86" si="19">C64*C75/J8</f>
         <v>6.8308534559619386E-4</v>
       </c>
       <c r="D86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4.3841418307968534E-4</v>
       </c>
       <c r="E86" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F86" s="22">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="3" t="s">
         <v>0</v>
       </c>
@@ -3507,23 +3544,23 @@
         <v>0</v>
       </c>
       <c r="C87" s="22">
-        <f t="shared" ref="C87:F87" si="19">C65*C76/J9</f>
+        <f t="shared" ref="C87:F87" si="20">C65*C76/J9</f>
         <v>0</v>
       </c>
       <c r="D87" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1583405413329182E-4</v>
       </c>
       <c r="E87" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.796991188323226E-4</v>
       </c>
       <c r="F87" s="22">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3532,23 +3569,23 @@
         <v>0</v>
       </c>
       <c r="C88" s="22">
-        <f t="shared" ref="C88:F88" si="20">C66*C77/J8</f>
+        <f t="shared" ref="C88:F88" si="21">C66*C77/J8</f>
         <v>0</v>
       </c>
       <c r="D88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="E88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7454911838065462E-4</v>
       </c>
       <c r="F88" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
         <v>0</v>
       </c>
@@ -3557,45 +3594,45 @@
         <v>0</v>
       </c>
       <c r="C89" s="22">
-        <f t="shared" ref="C89:F89" si="21">C67*C78/J9</f>
+        <f t="shared" ref="C89:F89" si="22">C67*C78/J9</f>
         <v>0</v>
       </c>
       <c r="D89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F89" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.4178593829442193E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="B90" s="20">
         <f>SUM(B83:B89)</f>
+        <v>1.0542482372129769E-3</v>
+      </c>
+      <c r="C90" s="20">
+        <f t="shared" ref="C90:F90" si="23">SUM(C83:C89)</f>
+        <v>1.0542482372129774E-3</v>
+      </c>
+      <c r="D90" s="20">
+        <f t="shared" si="23"/>
         <v>1.0542482372129772E-3</v>
       </c>
-      <c r="C90" s="20">
-        <f t="shared" ref="C90:F90" si="22">SUM(C83:C89)</f>
+      <c r="E90" s="20">
+        <f t="shared" si="23"/>
+        <v>1.0542482372129772E-3</v>
+      </c>
+      <c r="F90" s="20">
+        <f t="shared" si="23"/>
         <v>1.0542482372129774E-3</v>
       </c>
-      <c r="D90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129772E-3</v>
-      </c>
-      <c r="E90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129772E-3</v>
-      </c>
-      <c r="F90" s="20">
-        <f t="shared" si="22"/>
-        <v>1.0542482372129774E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>35</v>
       </c>
@@ -3615,7 +3652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="3" t="s">
         <v>0</v>
       </c>
@@ -3624,180 +3661,180 @@
         <v>9.0486274347296184E-5</v>
       </c>
       <c r="C96" s="22">
-        <f t="shared" ref="C96:F96" si="23">C61*C72</f>
+        <f t="shared" ref="C96:F96" si="24">C61*C72</f>
         <v>0</v>
       </c>
       <c r="D96" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E96" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F96" s="22">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="22">
-        <f t="shared" ref="B97:F102" si="24">B62*B73</f>
-        <v>1.4970395712690293E-4</v>
+        <f t="shared" ref="B97:F102" si="25">B62*B73</f>
+        <v>1.4970395712690266E-4</v>
       </c>
       <c r="C97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.2353253853467354E-4</v>
       </c>
       <c r="D97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E97" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F97" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="17.25" thickBot="1">
       <c r="A98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C98" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.5140644487988925E-6</v>
       </c>
       <c r="D98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E98" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F98" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="17.25" thickBot="1">
       <c r="A99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B99" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C99" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.6826211757868791E-4</v>
       </c>
       <c r="D99" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4.7392168637219108E-5</v>
       </c>
       <c r="E99" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F99" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="17.25" thickBot="1">
       <c r="A100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C100" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.3985594016443272E-4</v>
       </c>
       <c r="E100" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0756185248344847E-5</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="17.25" thickBot="1">
       <c r="A101" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B101" s="27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C101" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D101" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E101" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.542482332516667E-5</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.2957839106413474E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="C102" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F102" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8736283502477449E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3813,7 +3850,7 @@
       <c r="R106" s="37"/>
       <c r="S106" s="54"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="s">
         <v>1</v>
@@ -3842,28 +3879,28 @@
       <c r="R107" s="37"/>
       <c r="S107" s="54"/>
     </row>
-    <row r="108" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="17.25" thickBot="1">
       <c r="A108" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B108" s="33">
         <f>-B96/I6^2/$G$72</f>
-        <v>-0.69506362512328745</v>
+        <v>-0.69506362512328757</v>
       </c>
       <c r="C108" s="33">
         <f>-C96/J6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" ref="D108:F108" si="25">-D96/K6^2/$G$72</f>
+        <f t="shared" ref="D108:F108" si="26">-D96/K6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E108" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I108" s="37"/>
@@ -3878,28 +3915,28 @@
       <c r="R108" s="37"/>
       <c r="S108" s="54"/>
     </row>
-    <row r="109" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="17.25" thickBot="1">
       <c r="A109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B109" s="33">
         <f>-B97/I7^2/$G$72</f>
-        <v>-4.3415521376935162</v>
+        <v>-4.3415521376935295</v>
       </c>
       <c r="C109" s="33">
         <f>-C97/J7^2/$G$72</f>
-        <v>-0.83108301928852635</v>
+        <v>-0.83108301928852757</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" ref="D109:F109" si="26">-D97/K7^2/$G$72</f>
+        <f t="shared" ref="D109:F109" si="27">-D97/K7^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E109" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I109" s="37"/>
@@ -3924,7 +3961,7 @@
       </c>
       <c r="S109" s="54"/>
     </row>
-    <row r="110" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="17.25" thickBot="1">
       <c r="A110" s="3" t="s">
         <v>38</v>
       </c>
@@ -3934,19 +3971,19 @@
       </c>
       <c r="C110" s="31">
         <f>-(C99+C101)/J8^2/$G$72</f>
-        <v>-2.6303933813881839</v>
+        <v>-2.6303933813881875</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" ref="D110:F110" si="27">-(D99+D101)/K8^2/$G$72</f>
-        <v>-3.8469782002908399</v>
+        <f t="shared" ref="D110:F110" si="28">-(D99+D101)/K8^2/$G$72</f>
+        <v>-3.8469782002908457</v>
       </c>
       <c r="E110" s="33">
-        <f t="shared" si="27"/>
-        <v>-2.2385051286857123</v>
+        <f t="shared" si="28"/>
+        <v>-2.2385051286857158</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="27"/>
-        <v>-6.7356192831727286</v>
+        <f t="shared" si="28"/>
+        <v>-6.7356192831727384</v>
       </c>
       <c r="I110" s="37"/>
       <c r="J110" s="42">
@@ -3963,7 +4000,7 @@
       <c r="R110" s="37"/>
       <c r="S110" s="54"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="3" t="s">
         <v>0</v>
       </c>
@@ -3973,19 +4010,19 @@
       </c>
       <c r="C111" s="33">
         <f>-(C98+C100+C102)/J9^2/$G$72</f>
-        <v>-0.25896815543514512</v>
+        <v>-0.25896815543514551</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" ref="D111:F111" si="28">-(D98+D100+D102)/K9^2/$G$72</f>
-        <v>-2.5721932886264463</v>
+        <f t="shared" ref="D111:F111" si="29">-(D98+D100+D102)/K9^2/$G$72</f>
+        <v>-2.5721932886264498</v>
       </c>
       <c r="E111" s="33">
-        <f t="shared" si="28"/>
-        <v>-4.5050331041756948</v>
+        <f t="shared" si="29"/>
+        <v>-4.5050331041757019</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="28"/>
-        <v>-1.9296946655719216</v>
+        <f t="shared" si="29"/>
+        <v>-1.9296946655719243</v>
       </c>
       <c r="I111" s="37"/>
       <c r="J111" s="38">
@@ -4001,7 +4038,7 @@
       <c r="R111" s="37"/>
       <c r="S111" s="54"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="I112" s="37"/>
       <c r="J112" s="38">
         <v>0.15446546710483236</v>
@@ -4016,7 +4053,7 @@
       <c r="R112" s="37"/>
       <c r="S112" s="54"/>
     </row>
-    <row r="113" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="I113" s="37"/>
       <c r="J113" s="37"/>
       <c r="K113" s="37"/>
@@ -4029,7 +4066,7 @@
       <c r="R113" s="37"/>
       <c r="S113" s="54"/>
     </row>
-    <row r="114" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19">
       <c r="I114" s="37"/>
       <c r="J114" s="37"/>
       <c r="K114" s="37"/>
@@ -4042,7 +4079,7 @@
       <c r="R114" s="37"/>
       <c r="S114" s="54"/>
     </row>
-    <row r="115" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="17.25" thickBot="1">
       <c r="I115" s="37"/>
       <c r="J115" s="37"/>
       <c r="K115" s="37"/>
@@ -4055,7 +4092,7 @@
       <c r="R115" s="37"/>
       <c r="S115" s="54"/>
     </row>
-    <row r="116" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="I116" s="37"/>
       <c r="J116" s="43">
         <v>0.22371905087369007</v>
@@ -4085,7 +4122,7 @@
       </c>
       <c r="S116" s="54"/>
     </row>
-    <row r="117" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19">
       <c r="I117" s="37"/>
       <c r="J117" s="47">
         <v>0</v>
@@ -4115,7 +4152,7 @@
       </c>
       <c r="S117" s="54"/>
     </row>
-    <row r="118" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="I118" s="37"/>
       <c r="J118" s="47">
         <v>0</v>
@@ -4144,7 +4181,7 @@
       </c>
       <c r="S118" s="54"/>
     </row>
-    <row r="119" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" ht="17.25" thickBot="1">
       <c r="I119" s="37"/>
       <c r="J119" s="50">
         <v>0</v>
@@ -4173,7 +4210,25 @@
       </c>
       <c r="S119" s="54"/>
     </row>
-    <row r="120" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="17.25">
+      <c r="A120" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I120" s="37"/>
       <c r="J120" s="37"/>
       <c r="K120" s="37"/>
@@ -4186,7 +4241,27 @@
       <c r="R120" s="37"/>
       <c r="S120" s="54"/>
     </row>
-    <row r="121" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
+      <c r="A121" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2">
+        <f>B61/B128</f>
+        <v>0.68839676732073929</v>
+      </c>
+      <c r="C121" s="8">
+        <f>B121*J9/C128</f>
+        <v>0.17526238711279954</v>
+      </c>
+      <c r="D121" s="8">
+        <f>C121*K9/D128</f>
+        <v>5.667555230796481E-2</v>
+      </c>
+      <c r="E121" s="8">
+        <f>D121*L9/E128</f>
+        <v>1.2115056872081238E-2</v>
+      </c>
+      <c r="F121" s="8"/>
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
       <c r="K121" s="37"/>
@@ -4199,14 +4274,54 @@
       <c r="R121" s="37"/>
       <c r="S121" s="54"/>
     </row>
-    <row r="122" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="2">
+        <f>B62/B128</f>
+        <v>0.31160323267926071</v>
+      </c>
+      <c r="C122" s="8">
+        <f>(B122+B121)*J7/C128</f>
+        <v>0.61889294939858697</v>
+      </c>
+      <c r="D122" s="8">
+        <f>(C122+C121)*K7/D128</f>
+        <v>0.54967604500837908</v>
+      </c>
+      <c r="E122" s="8">
+        <f>(D122+D121)*L7/E128</f>
+        <v>0.4540310684909154</v>
+      </c>
+      <c r="F122" s="8"/>
       <c r="O122" s="37"/>
       <c r="P122" s="37"/>
       <c r="Q122" s="37"/>
       <c r="R122" s="37"/>
       <c r="S122" s="54"/>
     </row>
-    <row r="123" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B122:F127" si="30">B63/B$68</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="8">
+        <f>SUM(B122:B123)*J9/C128</f>
+        <v>7.9332630517695693E-2</v>
+      </c>
+      <c r="D123" s="8">
+        <f>SUM(C122:C123)*K9/D128</f>
+        <v>0.22578900715209047</v>
+      </c>
+      <c r="E123" s="8">
+        <f>SUM(D122:D123)*L9/E128</f>
+        <v>0.16576465207054097</v>
+      </c>
+      <c r="F123" s="8"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -4216,20 +4331,40 @@
         <v>0.17366883714986533</v>
       </c>
       <c r="P123" s="44">
-        <f t="shared" ref="P123:R123" si="29">K116-P116</f>
+        <f t="shared" ref="P123:R123" si="31">K116-P116</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="Q123" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="R123" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="S123" s="54"/>
     </row>
-    <row r="124" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A124" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="C124" s="8">
+        <f>SUM(B122:B124)*J8/C128</f>
+        <v>0.12651203297091776</v>
+      </c>
+      <c r="D124" s="8">
+        <f>SUM(C122:C124)*K8/D128</f>
+        <v>0.12694851065576238</v>
+      </c>
+      <c r="E124" s="8">
+        <f>SUM(D122:D124)*L8/E128</f>
+        <v>0.31779988347251575</v>
+      </c>
+      <c r="F124" s="8"/>
       <c r="J124" s="34">
         <v>0</v>
       </c>
@@ -4243,70 +4378,136 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="O124" s="47">
-        <f t="shared" ref="O124:O126" si="30">J117-O117</f>
+        <f t="shared" ref="O124:O126" si="32">J117-O117</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="P124" s="48">
-        <f t="shared" ref="P124:P126" si="31">K117-P117</f>
+        <f t="shared" ref="P124:P126" si="33">K117-P117</f>
         <v>0.23449697169752431</v>
       </c>
       <c r="Q124" s="48">
-        <f t="shared" ref="Q124:Q126" si="32">L117-Q117</f>
+        <f t="shared" ref="Q124:Q126" si="34">L117-Q117</f>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="R124" s="49">
-        <f t="shared" ref="R124:R126" si="33">M117-R117</f>
+        <f t="shared" ref="R124:R126" si="35">M117-R117</f>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="S124" s="54"/>
     </row>
-    <row r="125" spans="9:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
+      <c r="A125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="C125" s="8">
+        <f>SUM(B124:B125)*J9/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="8">
+        <f>SUM(C124:C125)*K9/D128</f>
+        <v>4.0910884875803327E-2</v>
+      </c>
+      <c r="E125" s="8">
+        <f>SUM(D124:D125)*L9/E128</f>
+        <v>3.5881893348435973E-2</v>
+      </c>
+      <c r="F125" s="8"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="O125" s="47">
+        <f t="shared" si="32"/>
+        <v>-5.5107961963151576E-2</v>
+      </c>
+      <c r="P125" s="48">
+        <f t="shared" si="33"/>
+        <v>-9.2492904730339442E-2</v>
+      </c>
+      <c r="Q125" s="48">
+        <f t="shared" si="34"/>
+        <v>0.18564982610302955</v>
+      </c>
+      <c r="R125" s="49">
+        <f t="shared" si="35"/>
+        <v>-3.8048959409538639E-2</v>
+      </c>
+      <c r="S125" s="54"/>
+    </row>
+    <row r="126" spans="1:19" ht="17.25" thickBot="1">
+      <c r="A126" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="2">
         <f t="shared" si="30"/>
-        <v>-5.5107961963151576E-2</v>
-      </c>
-      <c r="P125" s="48">
-        <f t="shared" si="31"/>
-        <v>-9.2492904730339442E-2</v>
-      </c>
-      <c r="Q125" s="48">
-        <f t="shared" si="32"/>
-        <v>0.18564982610302955</v>
-      </c>
-      <c r="R125" s="49">
-        <f t="shared" si="33"/>
-        <v>-3.8048959409538639E-2</v>
-      </c>
-      <c r="S125" s="54"/>
-    </row>
-    <row r="126" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="C126" s="8">
+        <f>SUM(B125:B126)*J8/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="8">
+        <f>SUM(C125:C126)*K8/D128</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="8">
+        <f>SUM(D125:D126)*L8/E128</f>
+        <v>1.4407445745510622E-2</v>
+      </c>
+      <c r="F126" s="8">
+        <f>SUM(E125:E126)*M8/F128</f>
+        <v>0.77065559157716967</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="O126" s="50">
+        <f t="shared" si="32"/>
+        <v>-3.4556867693454292E-2</v>
+      </c>
+      <c r="P126" s="51">
+        <f t="shared" si="33"/>
+        <v>-5.8000059473925447E-2</v>
+      </c>
+      <c r="Q126" s="51">
+        <f t="shared" si="34"/>
+        <v>-3.8048959409538639E-2</v>
+      </c>
+      <c r="R126" s="53">
+        <f t="shared" si="35"/>
+        <v>0.13060588657691832</v>
+      </c>
+      <c r="S126" s="54"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2">
         <f t="shared" si="30"/>
-        <v>-3.4556867693454292E-2</v>
-      </c>
-      <c r="P126" s="51">
-        <f t="shared" si="31"/>
-        <v>-5.8000059473925447E-2</v>
-      </c>
-      <c r="Q126" s="51">
-        <f t="shared" si="32"/>
-        <v>-3.8048959409538639E-2</v>
-      </c>
-      <c r="R126" s="53">
-        <f t="shared" si="33"/>
-        <v>0.13060588657691832</v>
-      </c>
-      <c r="S126" s="54"/>
-    </row>
-    <row r="127" spans="9:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C127" s="8">
+        <f>SUM(B126:B127)*J9/C128</f>
+        <v>0</v>
+      </c>
+      <c r="D127" s="8">
+        <f>SUM(C126:C127)*K9/D128</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <f>SUM(D126:D127)*L9/E128</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
+        <f>SUM(E126:E127)*M9/F128</f>
+        <v>0.2293444084228303</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -4317,8 +4518,29 @@
       <c r="R127" s="37"/>
       <c r="S127" s="54"/>
     </row>
-    <row r="128" spans="9:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="129" spans="10:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="17.25" thickBot="1">
+      <c r="B128" s="60">
+        <v>0.58039108563834296</v>
+      </c>
+      <c r="C128" s="60">
+        <v>0.60671048688397655</v>
+      </c>
+      <c r="D128" s="60">
+        <v>0.7022798018878923</v>
+      </c>
+      <c r="E128" s="60">
+        <v>0.57099469580208306</v>
+      </c>
+      <c r="F128" s="60">
+        <v>7.4661789777195411E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" ht="17.25" thickBot="1">
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
       <c r="J129" s="57">
         <f t="array" ref="J129:M129">MMULT(J124:M124,O123:R126)</f>
         <v>0.22371905087369007</v>
@@ -4331,6 +4553,32 @@
       </c>
       <c r="M129" s="59">
         <v>0.11446383001026585</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130">
+        <f>-LN(B128)</f>
+        <v>0.54405311708670723</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:F130" si="36">-LN(C128)</f>
+        <v>0.49970355906051411</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="36"/>
+        <v>0.35342337617963077</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="36"/>
+        <v>0.56037535868261246</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="36"/>
+        <v>4.8973719264063913</v>
+      </c>
+      <c r="G130">
+        <f>SUM(B130:F130)</f>
+        <v>6.8549273374158561</v>
       </c>
     </row>
   </sheetData>
@@ -4344,20 +4592,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C6:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19">
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
@@ -4377,7 +4625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19">
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4645,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:19">
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
@@ -4417,7 +4665,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:19">
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -4437,7 +4685,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:19">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4705,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:19">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -4478,7 +4726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:19">
       <c r="C14" s="17" t="s">
         <v>25</v>
       </c>
@@ -4517,7 +4765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:19">
       <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
@@ -4556,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:19">
       <c r="C16" s="17" t="s">
         <v>27</v>
       </c>
@@ -4595,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:19">
       <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
@@ -4634,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:19">
       <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
@@ -4673,7 +4921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:19">
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
@@ -4712,7 +4960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:19">
       <c r="C20" s="17" t="s">
         <v>31</v>
       </c>
@@ -4751,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:19">
       <c r="I21" s="16">
         <f>SUM(I14:I20)</f>
         <v>1.0542480607368357E-3</v>
@@ -4764,19 +5012,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="56"/>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -4794,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4814,7 +5062,7 @@
         <v>0.22197619682315342</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4834,7 +5082,7 @@
         <v>0.54475874373344024</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
@@ -4854,7 +5102,7 @@
         <v>0.1144149571372689</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +5122,7 @@
         <v>0.11885010230613731</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="17.25">
       <c r="B18" s="26" t="s">
         <v>36</v>
       </c>
@@ -4894,7 +5142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8">
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
@@ -4918,7 +5166,7 @@
         <v>2.0331503897692659E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8">
       <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
@@ -4942,7 +5190,7 @@
         <v>3.5856737790261391E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +5212,7 @@
         <v>1.0401419689087846E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8">
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
@@ -4986,7 +5234,7 @@
         <v>1.5147565938106887E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5256,7 @@
         <v>5.9354920904657093E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8">
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
@@ -5030,7 +5278,7 @@
         <v>8.124622989185554E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8">
       <c r="B25" s="3" t="s">
         <v>0</v>
       </c>

--- a/CTC.xlsx
+++ b/CTC.xlsx
@@ -567,12 +567,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="A134" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rescaling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="52">
   <si>
     <t>blank</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -761,6 +775,14 @@
   </si>
   <si>
     <t>확률합</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha^*beta^</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1206,7 +1228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,6 +1410,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1690,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:AA130"/>
+  <dimension ref="A5:AA170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3884,23 +3909,18 @@
         <v>21</v>
       </c>
       <c r="B108" s="33">
-        <f>-B96/I6^2/$G$72</f>
-        <v>-0.69506362512328757</v>
+        <v>0</v>
       </c>
       <c r="C108" s="33">
-        <f>-C96/J6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="D108" s="33">
-        <f t="shared" ref="D108:F108" si="26">-D96/K6^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E108" s="33">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F108" s="33">
-        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I108" s="37"/>
@@ -3928,15 +3948,15 @@
         <v>-0.83108301928852757</v>
       </c>
       <c r="D109" s="33">
-        <f t="shared" ref="D109:F109" si="27">-D97/K7^2/$G$72</f>
+        <f t="shared" ref="D109:F109" si="26">-D97/K7^2/$G$72</f>
         <v>0</v>
       </c>
       <c r="E109" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F109" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I109" s="37"/>
@@ -3974,15 +3994,15 @@
         <v>-2.6303933813881875</v>
       </c>
       <c r="D110" s="33">
-        <f t="shared" ref="D110:F110" si="28">-(D99+D101)/K8^2/$G$72</f>
+        <f t="shared" ref="D110:F110" si="27">-(D99+D101)/K8^2/$G$72</f>
         <v>-3.8469782002908457</v>
       </c>
       <c r="E110" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-2.2385051286857158</v>
       </c>
       <c r="F110" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-6.7356192831727384</v>
       </c>
       <c r="I110" s="37"/>
@@ -4005,23 +4025,23 @@
         <v>0</v>
       </c>
       <c r="B111" s="33">
-        <f>-(B98+B100+B102)/I9^2/$G$72</f>
-        <v>0</v>
+        <f>-(B96+B98+B100+B102)/I9^2/$G$72</f>
+        <v>-0.53767607530137385</v>
       </c>
       <c r="C111" s="33">
-        <f>-(C98+C100+C102)/J9^2/$G$72</f>
+        <f>-(C96+C98+C100+C102)/J9^2/$G$72</f>
         <v>-0.25896815543514551</v>
       </c>
       <c r="D111" s="33">
-        <f t="shared" ref="D111:F111" si="29">-(D98+D100+D102)/K9^2/$G$72</f>
+        <f t="shared" ref="D111:F111" si="28">-(D96+D98+D100+D102)/K9^2/$G$72</f>
         <v>-2.5721932886264498</v>
       </c>
       <c r="E111" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-4.5050331041757019</v>
       </c>
       <c r="F111" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>-1.9296946655719243</v>
       </c>
       <c r="I111" s="37"/>
@@ -4306,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B122:F127" si="30">B63/B$68</f>
+        <f t="shared" ref="B123:B127" si="29">B63/B$68</f>
         <v>0</v>
       </c>
       <c r="C123" s="8">
@@ -4331,15 +4351,15 @@
         <v>0.17366883714986533</v>
       </c>
       <c r="P123" s="44">
-        <f t="shared" ref="P123:R123" si="31">K116-P116</f>
+        <f t="shared" ref="P123:R123" si="30">K116-P116</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="Q123" s="44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>-5.5107961963151576E-2</v>
       </c>
       <c r="R123" s="45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>-3.4556867693454292E-2</v>
       </c>
       <c r="S123" s="54"/>
@@ -4349,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C124" s="8">
@@ -4378,19 +4398,19 @@
         <v>-0.25896815543514512</v>
       </c>
       <c r="O124" s="47">
-        <f t="shared" ref="O124:O126" si="32">J117-O117</f>
+        <f t="shared" ref="O124:O126" si="31">J117-O117</f>
         <v>-8.4004007493259564E-2</v>
       </c>
       <c r="P124" s="48">
-        <f t="shared" ref="P124:P126" si="33">K117-P117</f>
+        <f t="shared" ref="P124:P126" si="32">K117-P117</f>
         <v>0.23449697169752431</v>
       </c>
       <c r="Q124" s="48">
-        <f t="shared" ref="Q124:Q126" si="34">L117-Q117</f>
+        <f t="shared" ref="Q124:Q126" si="33">L117-Q117</f>
         <v>-9.2492904730339442E-2</v>
       </c>
       <c r="R124" s="49">
-        <f t="shared" ref="R124:R126" si="35">M117-R117</f>
+        <f t="shared" ref="R124:R126" si="34">M117-R117</f>
         <v>-5.8000059473925447E-2</v>
       </c>
       <c r="S124" s="54"/>
@@ -4400,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C125" s="8">
@@ -4421,19 +4441,19 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="O125" s="47">
+        <f t="shared" si="31"/>
+        <v>-5.5107961963151576E-2</v>
+      </c>
+      <c r="P125" s="48">
         <f t="shared" si="32"/>
-        <v>-5.5107961963151576E-2</v>
-      </c>
-      <c r="P125" s="48">
+        <v>-9.2492904730339442E-2</v>
+      </c>
+      <c r="Q125" s="48">
         <f t="shared" si="33"/>
-        <v>-9.2492904730339442E-2</v>
-      </c>
-      <c r="Q125" s="48">
+        <v>0.18564982610302955</v>
+      </c>
+      <c r="R125" s="49">
         <f t="shared" si="34"/>
-        <v>0.18564982610302955</v>
-      </c>
-      <c r="R125" s="49">
-        <f t="shared" si="35"/>
         <v>-3.8048959409538639E-2</v>
       </c>
       <c r="S125" s="54"/>
@@ -4443,7 +4463,7 @@
         <v>44</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C126" s="8">
@@ -4467,19 +4487,19 @@
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="O126" s="50">
+        <f t="shared" si="31"/>
+        <v>-3.4556867693454292E-2</v>
+      </c>
+      <c r="P126" s="51">
         <f t="shared" si="32"/>
-        <v>-3.4556867693454292E-2</v>
-      </c>
-      <c r="P126" s="51">
+        <v>-5.8000059473925447E-2</v>
+      </c>
+      <c r="Q126" s="51">
         <f t="shared" si="33"/>
-        <v>-5.8000059473925447E-2</v>
-      </c>
-      <c r="Q126" s="51">
+        <v>-3.8048959409538639E-2</v>
+      </c>
+      <c r="R126" s="53">
         <f t="shared" si="34"/>
-        <v>-3.8048959409538639E-2</v>
-      </c>
-      <c r="R126" s="53">
-        <f t="shared" si="35"/>
         <v>0.13060588657691832</v>
       </c>
       <c r="S126" s="54"/>
@@ -4489,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="C127" s="8">
@@ -4535,7 +4555,7 @@
         <v>7.4661789777195411E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:13" ht="17.25" thickBot="1">
+    <row r="129" spans="1:13" ht="17.25" thickBot="1">
       <c r="B129" s="60"/>
       <c r="C129" s="60"/>
       <c r="D129" s="60"/>
@@ -4555,31 +4575,619 @@
         <v>0.11446383001026585</v>
       </c>
     </row>
-    <row r="130" spans="2:13">
+    <row r="130" spans="1:13">
       <c r="B130">
         <f>-LN(B128)</f>
         <v>0.54405311708670723</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:F130" si="36">-LN(C128)</f>
+        <f t="shared" ref="C130:F130" si="35">-LN(C128)</f>
         <v>0.49970355906051411</v>
       </c>
       <c r="D130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.35342337617963077</v>
       </c>
       <c r="E130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.56037535868261246</v>
       </c>
       <c r="F130">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.8973719264063913</v>
       </c>
       <c r="G130">
         <f>SUM(B130:F130)</f>
         <v>6.8549273374158561</v>
       </c>
+    </row>
+    <row r="134" spans="1:13" ht="17.25">
+      <c r="A134" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="8">
+        <f>SUM(C135:C136)*I9/B142</f>
+        <v>0.21482274809613308</v>
+      </c>
+      <c r="C135" s="8">
+        <f>SUM(D135:D136)*J9/C142</f>
+        <v>0</v>
+      </c>
+      <c r="D135" s="8">
+        <f>SUM(E135:E136)*K9</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="8">
+        <f>SUM(C136:C138)*I7/B142</f>
+        <v>0.785177251903867</v>
+      </c>
+      <c r="C136" s="8">
+        <f>SUM(D136:D138)*J7/C142</f>
+        <v>5.3008391102750844E-2</v>
+      </c>
+      <c r="D136" s="8">
+        <f>SUM(E136:E138)*K7</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0</v>
+      </c>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8">
+        <f>SUM(D137:D138)*J9/C142</f>
+        <v>2.1806149642653934E-2</v>
+      </c>
+      <c r="D137" s="8">
+        <f>SUM(E137:E138)*K9</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="8">
+        <v>0</v>
+      </c>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8">
+        <f>SUM(D138:D139)*J8/C142</f>
+        <v>0.3532102576033902</v>
+      </c>
+      <c r="D138" s="8">
+        <f>SUM(E138:E139)*K8/D142</f>
+        <v>5.9747620630469706E-2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>0</v>
+      </c>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8">
+        <f>SUM(D139:D140)*J9/C142</f>
+        <v>0.29557757340371482</v>
+      </c>
+      <c r="D139" s="8">
+        <f>SUM(E139:E140)*K9/D142</f>
+        <v>0.5471213806797629</v>
+      </c>
+      <c r="E139" s="8">
+        <f>SUM(F139:F140)*L9/E142</f>
+        <v>0.18526846281095682</v>
+      </c>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8">
+        <f>(D140+D141)*J8/C142</f>
+        <v>0.22881033801248046</v>
+      </c>
+      <c r="D140" s="8">
+        <f>(E140+E141)*K8/D142</f>
+        <v>0.2627445063292852</v>
+      </c>
+      <c r="E140" s="8">
+        <f>(F140+F141)*L8/E142</f>
+        <v>0.62228138635111052</v>
+      </c>
+      <c r="F140" s="8">
+        <f>F77/F142</f>
+        <v>0.49049333582266652</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8">
+        <f>D141*J9/C142</f>
+        <v>4.7587290235009912E-2</v>
+      </c>
+      <c r="D141" s="8">
+        <f>E141*K9/D142</f>
+        <v>0.13038649236048214</v>
+      </c>
+      <c r="E141" s="8">
+        <f>F141*L9/E142</f>
+        <v>0.19245015083793279</v>
+      </c>
+      <c r="F141" s="8">
+        <f>F78/F142</f>
+        <v>0.50950666417733359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="B142">
+        <v>9.8587966877713443E-2</v>
+      </c>
+      <c r="C142">
+        <v>0.42322667138977799</v>
+      </c>
+      <c r="D142">
+        <v>0.33519912021761239</v>
+      </c>
+      <c r="E142">
+        <v>0.32314198099807478</v>
+      </c>
+      <c r="F142">
+        <v>0.2332650594434062</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="B144">
+        <f>-LN(B142)</f>
+        <v>2.3168060646007897</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:F144" si="36">-LN(C142)</f>
+        <v>0.85984737729117589</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="36"/>
+        <v>1.0930305350267813</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="36"/>
+        <v>1.1296634826884362</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="36"/>
+        <v>1.4555798778086744</v>
+      </c>
+      <c r="G144">
+        <f>SUM(B144:F144)</f>
+        <v>6.854927337415857</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="22">
+        <f>B121*B135</f>
+        <v>0.14788328533633552</v>
+      </c>
+      <c r="C149" s="22">
+        <f>C121*C135</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="22">
+        <f t="shared" ref="C149:F149" si="37">D121*D135</f>
+        <v>0</v>
+      </c>
+      <c r="E149" s="22">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="22">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="22">
+        <f t="shared" ref="B150:F155" si="38">B122*B136</f>
+        <v>0.24466376991946318</v>
+      </c>
+      <c r="C150" s="22">
+        <f t="shared" si="38"/>
+        <v>3.2806519512455286E-2</v>
+      </c>
+      <c r="D150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F150" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C151" s="22">
+        <f t="shared" si="38"/>
+        <v>1.7299392126142465E-3</v>
+      </c>
+      <c r="D151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C152" s="22">
+        <f t="shared" si="38"/>
+        <v>4.4685347755586455E-2</v>
+      </c>
+      <c r="D152" s="22">
+        <f t="shared" si="38"/>
+        <v>7.584871454263631E-3</v>
+      </c>
+      <c r="E152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F152" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D153" s="22">
+        <f t="shared" si="38"/>
+        <v>2.2383219818080346E-2</v>
+      </c>
+      <c r="E153" s="22">
+        <f t="shared" si="38"/>
+        <v>6.6477832234114291E-3</v>
+      </c>
+      <c r="F153" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E154" s="22">
+        <f t="shared" si="38"/>
+        <v>8.9654853122947582E-3</v>
+      </c>
+      <c r="F154" s="22">
+        <f t="shared" si="38"/>
+        <v>0.37800143188307644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="D155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="E155" s="22">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F155" s="22">
+        <f t="shared" si="38"/>
+        <v>0.11685250448324024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="33">
+        <f>B149/I6</f>
+        <v>0.42083461908461456</v>
+      </c>
+      <c r="C159" s="33">
+        <f t="shared" ref="C159:F159" si="39">C149/J6</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F159" s="33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="33">
+        <f>B150/I7</f>
+        <v>1.3528416809508566</v>
+      </c>
+      <c r="C160" s="33">
+        <f t="shared" ref="C160:F160" si="40">C150/J7</f>
+        <v>8.7370158005671369E-2</v>
+      </c>
+      <c r="D160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B161" s="33">
+        <f>(B152+B154)/I8</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="33">
+        <f t="shared" ref="C161:F161" si="41">(C152+C154)/J8</f>
+        <v>0.1814068826302293</v>
+      </c>
+      <c r="D161" s="33">
+        <f t="shared" si="41"/>
+        <v>7.01659223033297E-2</v>
+      </c>
+      <c r="E161" s="33">
+        <f t="shared" si="41"/>
+        <v>4.4585496755980024E-2</v>
+      </c>
+      <c r="F161" s="33">
+        <f t="shared" si="41"/>
+        <v>3.30377637103487</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="33">
+        <f>(B149+B151+B153+B155)/I9</f>
+        <v>0.37013447210316847</v>
+      </c>
+      <c r="C162" s="33">
+        <f t="shared" ref="C162:F162" si="42">(C149+C151+C153+C155)/J9</f>
+        <v>1.1199520805774498E-2</v>
+      </c>
+      <c r="D162" s="33">
+        <f t="shared" si="42"/>
+        <v>9.856105496068597E-2</v>
+      </c>
+      <c r="E162" s="33">
+        <f t="shared" si="42"/>
+        <v>5.4464695394104076E-2</v>
+      </c>
+      <c r="F162" s="33">
+        <f t="shared" si="42"/>
+        <v>0.98319229193634505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="B163" s="61">
+        <f>SUM(B159:B162)</f>
+        <v>2.1438107721386395</v>
+      </c>
+      <c r="C163" s="61">
+        <f t="shared" ref="C163:F163" si="43">SUM(C159:C162)</f>
+        <v>0.27997656144167521</v>
+      </c>
+      <c r="D163" s="61">
+        <f t="shared" si="43"/>
+        <v>0.16872697726401567</v>
+      </c>
+      <c r="E163" s="61">
+        <f t="shared" si="43"/>
+        <v>9.9050192150084093E-2</v>
+      </c>
+      <c r="F163" s="61">
+        <f t="shared" si="43"/>
+        <v>4.2869686629712147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="2"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="3"/>
+      <c r="B167" s="33"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="3"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="3"/>
+      <c r="B169" s="33"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="3"/>
+      <c r="B170" s="33"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
